--- a/checklists/technology_checklist.xlsx
+++ b/checklists/technology_checklist.xlsx
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>TO SCOPE</t>
-  </si>
-  <si>
-    <t>Guaranty Trust Bank (Ghana) Limited</t>
   </si>
   <si>
     <t>Technology Group</t>
@@ -3457,6 +3454,9 @@
   </si>
   <si>
     <t>Audit Period: []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization: </t>
   </si>
 </sst>
 </file>
@@ -6305,7 +6305,7 @@
   <dimension ref="A7:G298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6702,13 +6702,13 @@
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>793</v>
       </c>
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6716,27 +6716,27 @@
     </row>
     <row r="10" spans="1:6" ht="15.6">
       <c r="C10" s="69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="24" customFormat="1">
       <c r="A11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1">
@@ -6759,126 +6759,126 @@
         <v>10</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1">
       <c r="A14" s="272"/>
       <c r="B14" s="262"/>
       <c r="C14" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8">
       <c r="A15" s="272"/>
       <c r="B15" s="262"/>
       <c r="C15" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8">
       <c r="A16" s="272"/>
       <c r="B16" s="262"/>
       <c r="C16" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="86.4">
       <c r="A17" s="272"/>
       <c r="B17" s="262"/>
       <c r="C17" s="100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="102"/>
       <c r="E17" s="101" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="249" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.2">
       <c r="A18" s="272"/>
       <c r="B18" s="262"/>
       <c r="C18" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="101" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="148"/>
       <c r="F18" s="249" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="272"/>
       <c r="B19" s="262"/>
       <c r="C19" s="129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="102" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="144"/>
       <c r="F19" s="250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="272"/>
       <c r="B20" s="262"/>
       <c r="C20" s="213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="145"/>
       <c r="E20" s="101" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="272"/>
       <c r="B21" s="262"/>
       <c r="C21" s="129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="102" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="144"/>
       <c r="F21" s="147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6">
@@ -6893,147 +6893,147 @@
       <c r="A23" s="272"/>
       <c r="B23" s="262"/>
       <c r="C23" s="129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="149" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="150"/>
       <c r="F23" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="272"/>
       <c r="B24" s="262"/>
       <c r="C24" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="272"/>
       <c r="B25" s="262"/>
       <c r="C25" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="272"/>
       <c r="B26" s="262"/>
       <c r="C26" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.8">
       <c r="A27" s="272"/>
       <c r="B27" s="262"/>
       <c r="C27" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="272"/>
       <c r="B28" s="262"/>
       <c r="C28" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.8">
       <c r="A29" s="272"/>
       <c r="B29" s="262"/>
       <c r="C29" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="272"/>
       <c r="B30" s="262"/>
       <c r="C30" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="272"/>
       <c r="B31" s="262"/>
       <c r="C31" s="168" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="148"/>
       <c r="F31" s="191" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8">
       <c r="A32" s="272"/>
       <c r="B32" s="267"/>
       <c r="C32" s="123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="102"/>
       <c r="E32" s="98" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="167" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6">
       <c r="A33" s="247"/>
       <c r="B33" s="248"/>
       <c r="C33" s="123" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="102"/>
       <c r="E33" s="98"/>
@@ -7043,7 +7043,7 @@
       <c r="A34" s="247"/>
       <c r="B34" s="248"/>
       <c r="C34" s="123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="102"/>
       <c r="E34" s="98"/>
@@ -7053,7 +7053,7 @@
       <c r="A35" s="247"/>
       <c r="B35" s="248"/>
       <c r="C35" s="123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" s="102"/>
       <c r="E35" s="98"/>
@@ -7075,328 +7075,328 @@
         <v>16</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E37" s="44"/>
       <c r="F37" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" customHeight="1">
       <c r="A38" s="269"/>
       <c r="B38" s="275"/>
       <c r="C38" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="65"/>
       <c r="F38" s="66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.5" customHeight="1">
       <c r="A39" s="269"/>
       <c r="B39" s="275"/>
       <c r="C39" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="65"/>
       <c r="F39" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.8">
       <c r="A40" s="269"/>
       <c r="B40" s="275"/>
       <c r="C40" s="152" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="102" t="s">
         <v>0</v>
       </c>
       <c r="E40" s="154"/>
       <c r="F40" s="66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.25" customHeight="1">
       <c r="A41" s="269"/>
       <c r="B41" s="275"/>
       <c r="C41" s="152" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="102" t="s">
         <v>0</v>
       </c>
       <c r="E41" s="154"/>
       <c r="F41" s="66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="36.75" customHeight="1">
       <c r="A42" s="269"/>
       <c r="B42" s="275"/>
       <c r="C42" s="63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" s="67" t="s">
         <v>0</v>
       </c>
       <c r="E42" s="73"/>
       <c r="F42" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="51.75" customHeight="1">
       <c r="A43" s="269"/>
       <c r="B43" s="275"/>
       <c r="C43" s="152" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="102" t="s">
         <v>0</v>
       </c>
       <c r="E43" s="151"/>
       <c r="F43" s="153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="39" customHeight="1">
       <c r="A44" s="269"/>
       <c r="B44" s="275"/>
       <c r="C44" s="152" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="102" t="s">
         <v>0</v>
       </c>
       <c r="E44" s="151"/>
       <c r="F44" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="49.5" customHeight="1">
       <c r="A45" s="269"/>
       <c r="B45" s="275"/>
       <c r="C45" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="65"/>
       <c r="F45" s="66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="44.25" customHeight="1">
       <c r="A46" s="269"/>
       <c r="B46" s="275"/>
       <c r="C46" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E46" s="65"/>
       <c r="F46" s="66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="81.75" customHeight="1">
       <c r="A47" s="269"/>
       <c r="B47" s="275"/>
       <c r="C47" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="65"/>
       <c r="F47" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1">
       <c r="A48" s="269"/>
       <c r="B48" s="275"/>
       <c r="C48" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E48" s="65"/>
       <c r="F48" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="35.25" customHeight="1">
       <c r="A49" s="269"/>
       <c r="B49" s="275"/>
       <c r="C49" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E49" s="65"/>
       <c r="F49" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="46.5" customHeight="1">
       <c r="A50" s="269"/>
       <c r="B50" s="275"/>
       <c r="C50" s="63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E50" s="65"/>
       <c r="F50" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30.75" customHeight="1">
       <c r="A51" s="269"/>
       <c r="B51" s="275"/>
       <c r="C51" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E51" s="65"/>
       <c r="F51" s="251" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100.8">
       <c r="A52" s="269"/>
       <c r="B52" s="275"/>
       <c r="C52" s="212" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E52" s="65"/>
       <c r="F52" s="251" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1">
       <c r="A53" s="269"/>
       <c r="B53" s="275"/>
       <c r="C53" s="63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E53" s="65"/>
       <c r="F53" s="66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="49.5" customHeight="1">
       <c r="A54" s="269"/>
       <c r="B54" s="275"/>
       <c r="C54" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E54" s="65"/>
       <c r="F54" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="46.5" customHeight="1">
       <c r="A55" s="269"/>
       <c r="B55" s="275"/>
       <c r="C55" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E55" s="65"/>
       <c r="F55" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28.8">
       <c r="A56" s="269"/>
       <c r="B56" s="275"/>
       <c r="C56" s="63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D56" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E56" s="65"/>
       <c r="F56" s="66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="38.25" customHeight="1">
       <c r="A57" s="269"/>
       <c r="B57" s="275"/>
       <c r="C57" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" s="67"/>
       <c r="E57" s="50"/>
       <c r="F57" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="43.2">
       <c r="A58" s="269"/>
       <c r="B58" s="275"/>
       <c r="C58" s="211" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58" s="155"/>
       <c r="E58" s="65"/>
       <c r="F58" s="172" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="28.8">
       <c r="A59" s="269"/>
       <c r="B59" s="275"/>
       <c r="C59" s="217" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D59" s="166"/>
       <c r="E59" s="73"/>
       <c r="F59" s="221" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.6">
       <c r="A60" s="216"/>
       <c r="B60" s="275"/>
       <c r="C60" s="167" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D60" s="166"/>
       <c r="E60" s="218"/>
       <c r="F60" s="167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="4.5" customHeight="1">
@@ -7415,189 +7415,189 @@
         <v>17</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D62" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="72">
       <c r="A63" s="263"/>
       <c r="B63" s="273"/>
       <c r="C63" s="210" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.6">
       <c r="A64" s="263"/>
       <c r="B64" s="273"/>
       <c r="C64" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D64" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="28.8">
       <c r="A65" s="263"/>
       <c r="B65" s="273"/>
       <c r="C65" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="28.8">
       <c r="A66" s="263"/>
       <c r="B66" s="273"/>
       <c r="C66" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.6">
       <c r="A67" s="263"/>
       <c r="B67" s="273"/>
       <c r="C67" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="97.5" customHeight="1">
       <c r="A68" s="263"/>
       <c r="B68" s="273"/>
       <c r="C68" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="101" t="s">
         <v>1</v>
       </c>
       <c r="F68" s="215" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="28.8">
       <c r="A69" s="263"/>
       <c r="B69" s="273"/>
       <c r="C69" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="43.2">
       <c r="A70" s="263"/>
       <c r="B70" s="273"/>
       <c r="C70" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D70" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.6">
       <c r="A71" s="263"/>
       <c r="B71" s="273"/>
       <c r="C71" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="28.8">
       <c r="A72" s="263"/>
       <c r="B72" s="273"/>
       <c r="C72" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D72" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="28.8">
       <c r="A73" s="263"/>
       <c r="B73" s="273"/>
       <c r="C73" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D73" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="46.5" customHeight="1">
       <c r="A74" s="263"/>
       <c r="B74" s="273"/>
       <c r="C74" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D74" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="170" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="46.5" customHeight="1">
       <c r="A75" s="263"/>
       <c r="B75" s="273"/>
       <c r="C75" s="209" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D75" s="67"/>
       <c r="E75" s="169"/>
@@ -7619,208 +7619,208 @@
         <v>19</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D77" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E77" s="44"/>
       <c r="F77" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="35.25" customHeight="1">
       <c r="A78" s="269"/>
       <c r="B78" s="278"/>
       <c r="C78" s="70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D78" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E78" s="44"/>
       <c r="F78" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="57.6">
       <c r="A79" s="269"/>
       <c r="B79" s="278"/>
       <c r="C79" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D79" s="34"/>
       <c r="E79" s="101" t="s">
         <v>1</v>
       </c>
       <c r="F79" s="251" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="28.8">
       <c r="A80" s="269"/>
       <c r="B80" s="278"/>
       <c r="C80" s="70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D80" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E80" s="71"/>
       <c r="F80" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="48" customHeight="1">
       <c r="A81" s="269"/>
       <c r="B81" s="278"/>
       <c r="C81" s="70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D81" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E81" s="50"/>
       <c r="F81" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="28.8">
       <c r="A82" s="269"/>
       <c r="B82" s="278"/>
       <c r="C82" s="70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D82" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E82" s="50"/>
       <c r="F82" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.6">
       <c r="A83" s="269"/>
       <c r="B83" s="278"/>
       <c r="C83" s="70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E83" s="50"/>
       <c r="F83" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.6">
       <c r="A84" s="269"/>
       <c r="B84" s="278"/>
       <c r="C84" s="70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D84" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E84" s="50"/>
       <c r="F84" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.6">
       <c r="A85" s="269"/>
       <c r="B85" s="278"/>
       <c r="C85" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D85" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E85" s="50"/>
       <c r="F85" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="43.2">
       <c r="A86" s="269"/>
       <c r="B86" s="278"/>
       <c r="C86" s="70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D86" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E86" s="50"/>
       <c r="F86" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="37.5" customHeight="1">
       <c r="A87" s="269"/>
       <c r="B87" s="278"/>
       <c r="C87" s="70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D87" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E87" s="50"/>
       <c r="F87" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="28.8">
       <c r="A88" s="269"/>
       <c r="B88" s="278"/>
       <c r="C88" s="70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D88" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E88" s="50"/>
       <c r="F88" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="28.8">
       <c r="A89" s="269"/>
       <c r="B89" s="278"/>
       <c r="C89" s="70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D89" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E89" s="50"/>
       <c r="F89" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="28.8">
       <c r="A90" s="269"/>
       <c r="B90" s="278"/>
       <c r="C90" s="70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D90" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E90" s="50"/>
       <c r="F90" s="66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.6">
       <c r="A91" s="269"/>
       <c r="B91" s="278"/>
       <c r="C91" s="170" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D91" s="28"/>
       <c r="E91" s="50"/>
       <c r="F91" s="219" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G91" s="48"/>
     </row>
@@ -7828,14 +7828,14 @@
       <c r="A92" s="269"/>
       <c r="B92" s="279"/>
       <c r="C92" s="220" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D92" s="102"/>
       <c r="E92" s="101" t="s">
         <v>1</v>
       </c>
       <c r="F92" s="167" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G92" s="48"/>
     </row>
@@ -7852,218 +7852,218 @@
         <v>5</v>
       </c>
       <c r="B94" s="270" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="36" t="s">
         <v>186</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>187</v>
       </c>
       <c r="D94" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E94" s="44"/>
       <c r="F94" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="28.8">
       <c r="A95" s="263"/>
       <c r="B95" s="262"/>
       <c r="C95" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D95" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E95" s="65"/>
       <c r="F95" s="66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="43.2">
       <c r="A96" s="263"/>
       <c r="B96" s="262"/>
       <c r="C96" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D96" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E96" s="65"/>
       <c r="F96" s="66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="28.8">
       <c r="A97" s="263"/>
       <c r="B97" s="262"/>
       <c r="C97" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D97" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E97" s="65"/>
       <c r="F97" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="28.8">
       <c r="A98" s="263"/>
       <c r="B98" s="262"/>
       <c r="C98" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D98" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E98" s="65"/>
       <c r="F98" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="28.8">
       <c r="A99" s="263"/>
       <c r="B99" s="262"/>
       <c r="C99" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D99" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E99" s="65"/>
       <c r="F99" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="28.8">
       <c r="A100" s="263"/>
       <c r="B100" s="262"/>
       <c r="C100" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D100" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E100" s="65"/>
       <c r="F100" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.6">
       <c r="A101" s="263"/>
       <c r="B101" s="262"/>
       <c r="C101" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D101" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E101" s="65"/>
       <c r="F101" s="66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="28.8">
       <c r="A102" s="263"/>
       <c r="B102" s="262"/>
       <c r="C102" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D102" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E102" s="65"/>
       <c r="F102" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="28.8">
       <c r="A103" s="263"/>
       <c r="B103" s="262"/>
       <c r="C103" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D103" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E103" s="65"/>
       <c r="F103" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="43.5" customHeight="1">
       <c r="A104" s="263"/>
       <c r="B104" s="262"/>
       <c r="C104" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D104" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E104" s="65"/>
       <c r="F104" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="18.75" customHeight="1">
       <c r="A105" s="263"/>
       <c r="B105" s="262"/>
       <c r="C105" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D105" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E105" s="65"/>
       <c r="F105" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="28.8">
       <c r="A106" s="263"/>
       <c r="B106" s="262"/>
       <c r="C106" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D106" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E106" s="65"/>
       <c r="F106" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="28.8">
       <c r="A107" s="263"/>
       <c r="B107" s="262"/>
       <c r="C107" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D107" s="34"/>
       <c r="E107" s="73"/>
       <c r="F107" s="96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="43.5" customHeight="1">
       <c r="A108" s="263"/>
       <c r="B108" s="262"/>
       <c r="C108" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D108" s="142"/>
       <c r="E108" s="98" t="s">
         <v>1</v>
       </c>
       <c r="F108" s="143" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="39" customHeight="1">
       <c r="A109" s="263"/>
       <c r="B109" s="262"/>
       <c r="C109" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D109" s="72"/>
       <c r="E109" s="65"/>
@@ -8073,61 +8073,61 @@
       <c r="A110" s="263"/>
       <c r="B110" s="262"/>
       <c r="C110" s="70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D110" s="72"/>
       <c r="E110" s="98" t="s">
         <v>1</v>
       </c>
       <c r="F110" s="139" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="63.75" customHeight="1">
       <c r="A111" s="263"/>
       <c r="B111" s="262"/>
       <c r="C111" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D111" s="72"/>
       <c r="E111" s="98" t="s">
         <v>1</v>
       </c>
       <c r="F111" s="139" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="63.75" customHeight="1">
       <c r="A112" s="263"/>
       <c r="B112" s="262"/>
       <c r="C112" s="70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D112" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E112" s="65"/>
       <c r="F112" s="95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="63.75" customHeight="1">
       <c r="A113" s="263"/>
       <c r="B113" s="262"/>
       <c r="C113" s="70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D113" s="72"/>
       <c r="E113" s="65"/>
       <c r="F113" s="173" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="63.75" customHeight="1">
       <c r="A114" s="202"/>
       <c r="B114" s="203"/>
       <c r="C114" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D114" s="72"/>
       <c r="E114" s="65"/>
@@ -8137,7 +8137,7 @@
       <c r="A115" s="202"/>
       <c r="B115" s="203"/>
       <c r="C115" s="70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D115" s="72"/>
       <c r="E115" s="65"/>
@@ -8147,7 +8147,7 @@
       <c r="A116" s="202"/>
       <c r="B116" s="203"/>
       <c r="C116" s="70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D116" s="72"/>
       <c r="E116" s="65"/>
@@ -8157,7 +8157,7 @@
       <c r="A117" s="202"/>
       <c r="B117" s="203"/>
       <c r="C117" s="70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D117" s="72"/>
       <c r="E117" s="65"/>
@@ -8167,7 +8167,7 @@
       <c r="A118" s="202"/>
       <c r="B118" s="203"/>
       <c r="C118" s="70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D118" s="72"/>
       <c r="E118" s="65"/>
@@ -8177,7 +8177,7 @@
       <c r="A119" s="202"/>
       <c r="B119" s="203"/>
       <c r="C119" s="70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D119" s="72"/>
       <c r="E119" s="65"/>
@@ -8187,7 +8187,7 @@
       <c r="A120" s="202"/>
       <c r="B120" s="203"/>
       <c r="C120" s="70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D120" s="72"/>
       <c r="E120" s="65"/>
@@ -8197,7 +8197,7 @@
       <c r="A121" s="202"/>
       <c r="B121" s="203"/>
       <c r="C121" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D121" s="72"/>
       <c r="E121" s="65"/>
@@ -8207,7 +8207,7 @@
       <c r="A122" s="202"/>
       <c r="B122" s="203"/>
       <c r="C122" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D122" s="72"/>
       <c r="E122" s="65"/>
@@ -8217,7 +8217,7 @@
       <c r="A123" s="202"/>
       <c r="B123" s="203"/>
       <c r="C123" s="70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D123" s="72"/>
       <c r="E123" s="65"/>
@@ -8227,7 +8227,7 @@
       <c r="A124" s="202"/>
       <c r="B124" s="203"/>
       <c r="C124" s="70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D124" s="72"/>
       <c r="E124" s="65"/>
@@ -8249,509 +8249,509 @@
         <v>22</v>
       </c>
       <c r="C126" s="70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D126" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E126" s="65"/>
       <c r="F126" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="32.25" customHeight="1">
       <c r="A127" s="263"/>
       <c r="B127" s="262"/>
       <c r="C127" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D127" s="34"/>
       <c r="E127" s="101" t="s">
         <v>1</v>
       </c>
       <c r="F127" s="91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="57" customHeight="1">
       <c r="A128" s="263"/>
       <c r="B128" s="262"/>
       <c r="C128" s="70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D128" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E128" s="65"/>
       <c r="F128" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="31.5" customHeight="1">
       <c r="A129" s="263"/>
       <c r="B129" s="262"/>
       <c r="C129" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D129" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E129" s="65"/>
       <c r="F129" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="28.5" customHeight="1">
       <c r="A130" s="263"/>
       <c r="B130" s="262"/>
       <c r="C130" s="70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D130" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E130" s="65"/>
       <c r="F130" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="28.8">
       <c r="A131" s="263"/>
       <c r="B131" s="262"/>
       <c r="C131" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D131" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E131" s="65"/>
       <c r="F131" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="28.8">
       <c r="A132" s="263"/>
       <c r="B132" s="262"/>
       <c r="C132" s="70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D132" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E132" s="65"/>
       <c r="F132" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="28.8">
       <c r="A133" s="263"/>
       <c r="B133" s="262"/>
       <c r="C133" s="70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D133" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E133" s="65"/>
       <c r="F133" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="36" customHeight="1">
       <c r="A134" s="263"/>
       <c r="B134" s="262"/>
       <c r="C134" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D134" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E134" s="65"/>
       <c r="F134" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="35.25" customHeight="1">
       <c r="A135" s="263"/>
       <c r="B135" s="262"/>
       <c r="C135" s="70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D135" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E135" s="65"/>
       <c r="F135" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="45" customHeight="1">
       <c r="A136" s="263"/>
       <c r="B136" s="262"/>
       <c r="C136" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D136" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E136" s="65"/>
       <c r="F136" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="23.25" customHeight="1">
       <c r="A137" s="263"/>
       <c r="B137" s="262"/>
       <c r="C137" s="70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D137" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E137" s="65"/>
       <c r="F137" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="28.8">
       <c r="A138" s="263"/>
       <c r="B138" s="262"/>
       <c r="C138" s="70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D138" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E138" s="65"/>
       <c r="F138" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="28.8">
       <c r="A139" s="263"/>
       <c r="B139" s="262"/>
       <c r="C139" s="70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D139" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E139" s="65"/>
       <c r="F139" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="28.8">
       <c r="A140" s="263"/>
       <c r="B140" s="262"/>
       <c r="C140" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D140" s="34"/>
       <c r="E140" s="101" t="s">
         <v>1</v>
       </c>
       <c r="F140" s="252" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="43.2">
       <c r="A141" s="263"/>
       <c r="B141" s="262"/>
       <c r="C141" s="70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D141" s="142"/>
       <c r="E141" s="98" t="s">
         <v>1</v>
       </c>
       <c r="F141" s="253" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.6">
       <c r="A142" s="263"/>
       <c r="B142" s="262"/>
       <c r="C142" s="70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D142" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E142" s="65"/>
       <c r="F142" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="43.2">
       <c r="A143" s="263"/>
       <c r="B143" s="262"/>
       <c r="C143" s="70" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D143" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E143" s="65"/>
       <c r="F143" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="28.8">
       <c r="A144" s="263"/>
       <c r="B144" s="262"/>
       <c r="C144" s="70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D144" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E144" s="65"/>
       <c r="F144" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.6">
       <c r="A145" s="263"/>
       <c r="B145" s="262"/>
       <c r="C145" s="70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D145" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E145" s="65"/>
       <c r="F145" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.6">
       <c r="A146" s="263"/>
       <c r="B146" s="262"/>
       <c r="C146" s="70" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D146" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E146" s="65"/>
       <c r="F146" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="28.8">
       <c r="A147" s="263"/>
       <c r="B147" s="262"/>
       <c r="C147" s="70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D147" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E147" s="65"/>
       <c r="F147" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.6">
       <c r="A148" s="263"/>
       <c r="B148" s="262"/>
       <c r="C148" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D148" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E148" s="65"/>
       <c r="F148" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="28.8">
       <c r="A149" s="263"/>
       <c r="B149" s="262"/>
       <c r="C149" s="70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D149" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E149" s="65"/>
       <c r="F149" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.6">
       <c r="A150" s="263"/>
       <c r="B150" s="262"/>
       <c r="C150" s="70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D150" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E150" s="65"/>
       <c r="F150" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15.6">
       <c r="A151" s="263"/>
       <c r="B151" s="262"/>
       <c r="C151" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D151" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E151" s="65"/>
       <c r="F151" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.6">
       <c r="A152" s="263"/>
       <c r="B152" s="262"/>
       <c r="C152" s="70" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D152" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E152" s="65"/>
       <c r="F152" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.6">
       <c r="A153" s="263"/>
       <c r="B153" s="262"/>
       <c r="C153" s="70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D153" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E153" s="65"/>
       <c r="F153" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15.6">
       <c r="A154" s="263"/>
       <c r="B154" s="262"/>
       <c r="C154" s="70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D154" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E154" s="65"/>
       <c r="F154" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15.6">
       <c r="A155" s="263"/>
       <c r="B155" s="262"/>
       <c r="C155" s="70" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D155" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E155" s="65"/>
       <c r="F155" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15.6">
       <c r="A156" s="263"/>
       <c r="B156" s="262"/>
       <c r="C156" s="70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D156" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E156" s="65"/>
       <c r="F156" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.6">
       <c r="A157" s="263"/>
       <c r="B157" s="262"/>
       <c r="C157" s="70" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D157" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E157" s="65"/>
       <c r="F157" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.6">
       <c r="A158" s="263"/>
       <c r="B158" s="262"/>
       <c r="C158" s="70" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D158" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E158" s="65"/>
       <c r="F158" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="28.8">
       <c r="A159" s="263"/>
       <c r="B159" s="262"/>
       <c r="C159" s="70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D159" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E159" s="65"/>
       <c r="F159" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="57.6">
       <c r="A160" s="263"/>
       <c r="B160" s="262"/>
       <c r="C160" s="70" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D160" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E160" s="65"/>
       <c r="F160" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.6">
       <c r="A161" s="263"/>
       <c r="B161" s="262"/>
       <c r="C161" s="70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D161" s="64"/>
       <c r="E161" s="65"/>
       <c r="F161" s="94" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15.6">
       <c r="A162" s="263"/>
       <c r="B162" s="262"/>
       <c r="C162" s="70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D162" s="72"/>
       <c r="E162" s="65"/>
@@ -8773,7 +8773,7 @@
         <v>23</v>
       </c>
       <c r="C164" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D164" s="34"/>
       <c r="E164" s="29"/>
@@ -8783,315 +8783,315 @@
       <c r="A165" s="269"/>
       <c r="B165" s="267"/>
       <c r="C165" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D165" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E165" s="50"/>
       <c r="F165" s="87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15.6">
       <c r="A166" s="269"/>
       <c r="B166" s="267"/>
       <c r="C166" s="254" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D166" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E166" s="50"/>
       <c r="F166" s="255" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="28.8">
       <c r="A167" s="269"/>
       <c r="B167" s="267"/>
       <c r="C167" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D167" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E167" s="50"/>
       <c r="F167" s="87" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="28.8">
       <c r="A168" s="269"/>
       <c r="B168" s="267"/>
       <c r="C168" s="70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D168" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E168" s="50"/>
       <c r="F168" s="87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="28.8">
       <c r="A169" s="269"/>
       <c r="B169" s="267"/>
       <c r="C169" s="70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D169" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E169" s="50"/>
       <c r="F169" s="87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="38.25" customHeight="1">
       <c r="A170" s="269"/>
       <c r="B170" s="267"/>
       <c r="C170" s="70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D170" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E170" s="50"/>
       <c r="F170" s="87" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="28.8">
       <c r="A171" s="269"/>
       <c r="B171" s="267"/>
       <c r="C171" s="70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D171" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E171" s="50"/>
       <c r="F171" s="87" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15.6">
       <c r="A172" s="269"/>
       <c r="B172" s="267"/>
       <c r="C172" s="70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D172" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E172" s="50"/>
       <c r="F172" s="87" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="28.8">
       <c r="A173" s="269"/>
       <c r="B173" s="267"/>
       <c r="C173" s="70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D173" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E173" s="50"/>
       <c r="F173" s="87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="28.8">
       <c r="A174" s="269"/>
       <c r="B174" s="267"/>
       <c r="C174" s="70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D174" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E174" s="50"/>
       <c r="F174" s="87" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15.6">
       <c r="A175" s="269"/>
       <c r="B175" s="267"/>
       <c r="C175" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D175" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E175" s="50"/>
       <c r="F175" s="87" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="43.2">
       <c r="A176" s="269"/>
       <c r="B176" s="267"/>
       <c r="C176" s="70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D176" s="34"/>
       <c r="E176" s="98" t="s">
         <v>1</v>
       </c>
       <c r="F176" s="189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15.6">
       <c r="A177" s="269"/>
       <c r="B177" s="267"/>
       <c r="C177" s="70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D177" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E177" s="50"/>
       <c r="F177" s="87" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="28.8">
       <c r="A178" s="269"/>
       <c r="B178" s="267"/>
       <c r="C178" s="70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D178" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E178" s="50"/>
       <c r="F178" s="87" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="28.8">
       <c r="A179" s="269"/>
       <c r="B179" s="267"/>
       <c r="C179" s="70" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D179" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E179" s="50"/>
       <c r="F179" s="87" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="28.8">
       <c r="A180" s="269"/>
       <c r="B180" s="267"/>
       <c r="C180" s="70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D180" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E180" s="50"/>
       <c r="F180" s="87" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="28.8">
       <c r="A181" s="269"/>
       <c r="B181" s="267"/>
       <c r="C181" s="70" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D181" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E181" s="50"/>
       <c r="F181" s="87" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15.6">
       <c r="A182" s="269"/>
       <c r="B182" s="267"/>
       <c r="C182" s="70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D182" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E182" s="50"/>
       <c r="F182" s="87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15.6">
       <c r="A183" s="269"/>
       <c r="B183" s="267"/>
       <c r="C183" s="70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D183" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E183" s="50"/>
       <c r="F183" s="195" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="27" customHeight="1">
       <c r="A184" s="269"/>
       <c r="B184" s="267"/>
       <c r="C184" s="70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D184" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E184" s="50"/>
       <c r="F184" s="87" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="28.8">
       <c r="A185" s="269"/>
       <c r="B185" s="267"/>
       <c r="C185" s="70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D185" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E185" s="164"/>
       <c r="F185" s="87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="28.8">
       <c r="A186" s="269"/>
       <c r="B186" s="267"/>
       <c r="C186" s="162" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D186" s="102"/>
       <c r="E186" s="98" t="s">
         <v>1</v>
       </c>
       <c r="F186" s="196" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15.6">
       <c r="A187" s="269"/>
       <c r="B187" s="267"/>
       <c r="C187" s="201" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D187" s="102"/>
       <c r="E187" s="98"/>
@@ -9101,7 +9101,7 @@
       <c r="A188" s="269"/>
       <c r="B188" s="267"/>
       <c r="C188" s="206" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D188" s="102"/>
       <c r="E188" s="98"/>
@@ -9111,48 +9111,48 @@
       <c r="A189" s="269"/>
       <c r="B189" s="267"/>
       <c r="C189" s="201" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D189" s="102"/>
       <c r="E189" s="98"/>
       <c r="F189" s="200" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="116" customFormat="1" ht="28.8">
       <c r="A190" s="269"/>
       <c r="B190" s="267"/>
       <c r="C190" s="197" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D190" s="198"/>
       <c r="E190" s="199"/>
       <c r="F190" s="200" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="28.8">
       <c r="A191" s="269"/>
       <c r="B191" s="267"/>
       <c r="C191" s="207" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D191" s="102"/>
       <c r="E191" s="98"/>
       <c r="F191" s="214" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="43.2">
       <c r="A192" s="269"/>
       <c r="B192" s="267"/>
       <c r="C192" s="208" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D192" s="102"/>
       <c r="E192" s="98"/>
       <c r="F192" s="214" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="3.75" customHeight="1">
@@ -9174,24 +9174,24 @@
     <row r="195" spans="1:6" ht="15.6">
       <c r="A195" s="263"/>
       <c r="B195" s="262" t="s">
+        <v>358</v>
+      </c>
+      <c r="C195" s="58" t="s">
         <v>359</v>
-      </c>
-      <c r="C195" s="58" t="s">
-        <v>360</v>
       </c>
       <c r="D195" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E195" s="77"/>
       <c r="F195" s="88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15.6">
       <c r="A196" s="263"/>
       <c r="B196" s="262"/>
       <c r="C196" s="171" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D196" s="34"/>
       <c r="E196" s="77"/>
@@ -9201,131 +9201,131 @@
       <c r="A197" s="263"/>
       <c r="B197" s="262"/>
       <c r="C197" s="78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D197" s="34"/>
       <c r="E197" s="98" t="s">
         <v>1</v>
       </c>
       <c r="F197" s="256" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15.6">
       <c r="A198" s="263"/>
       <c r="B198" s="262"/>
       <c r="C198" s="78" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D198" s="34"/>
       <c r="E198" s="77"/>
       <c r="F198" s="88" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="28.8">
       <c r="A199" s="263"/>
       <c r="B199" s="262"/>
       <c r="C199" s="78" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D199" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E199" s="77"/>
       <c r="F199" s="88" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="28.8">
       <c r="A200" s="263"/>
       <c r="B200" s="262"/>
       <c r="C200" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D200" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E200" s="77"/>
       <c r="F200" s="88" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15.6">
       <c r="A201" s="263"/>
       <c r="B201" s="262"/>
       <c r="C201" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D201" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E201" s="77"/>
       <c r="F201" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.6">
       <c r="A202" s="263"/>
       <c r="B202" s="262"/>
       <c r="C202" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D202" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E202" s="77"/>
       <c r="F202" s="88" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="28.8">
       <c r="A203" s="263"/>
       <c r="B203" s="262"/>
       <c r="C203" s="78" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D203" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E203" s="77"/>
       <c r="F203" s="88" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="28.8">
       <c r="A204" s="263"/>
       <c r="B204" s="262"/>
       <c r="C204" s="78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D204" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E204" s="77"/>
       <c r="F204" s="88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="28.8">
       <c r="A205" s="263"/>
       <c r="B205" s="262"/>
       <c r="C205" s="94" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D205" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E205" s="29"/>
       <c r="F205" s="222" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="28.8">
       <c r="A206" s="263"/>
       <c r="B206" s="262"/>
       <c r="C206" s="37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D206" s="34" t="s">
         <v>0</v>
@@ -9337,105 +9337,105 @@
       <c r="A207" s="263"/>
       <c r="B207" s="262"/>
       <c r="C207" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D207" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E207" s="77"/>
       <c r="F207" s="88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="74.25" customHeight="1">
       <c r="A208" s="263"/>
       <c r="B208" s="262"/>
       <c r="C208" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D208" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E208" s="77"/>
       <c r="F208" s="88" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="28.8">
       <c r="A209" s="263"/>
       <c r="B209" s="262"/>
       <c r="C209" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D209" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E209" s="77"/>
       <c r="F209" s="88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="43.2">
       <c r="A210" s="263"/>
       <c r="B210" s="262"/>
       <c r="C210" s="223" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D210" s="34"/>
       <c r="E210" s="98" t="s">
         <v>1</v>
       </c>
       <c r="F210" s="224" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="57.6">
       <c r="A211" s="263"/>
       <c r="B211" s="262"/>
       <c r="C211" s="223" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D211" s="34"/>
       <c r="E211" s="98" t="s">
         <v>1</v>
       </c>
       <c r="F211" s="224" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="57.6">
       <c r="A212" s="263"/>
       <c r="B212" s="262"/>
       <c r="C212" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D212" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E212" s="77"/>
       <c r="F212" s="88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="44.25" customHeight="1">
       <c r="A213" s="263"/>
       <c r="B213" s="262"/>
       <c r="C213" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D213" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E213" s="77"/>
       <c r="F213" s="88" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="57.6">
       <c r="A214" s="263"/>
       <c r="B214" s="262"/>
       <c r="C214" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D214" s="34" t="s">
         <v>0</v>
@@ -9447,7 +9447,7 @@
       <c r="A215" s="263"/>
       <c r="B215" s="262"/>
       <c r="C215" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D215" s="34" t="s">
         <v>0</v>
@@ -9459,40 +9459,40 @@
       <c r="A216" s="263"/>
       <c r="B216" s="262"/>
       <c r="C216" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D216" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E216" s="77"/>
       <c r="F216" s="88" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="57.6">
       <c r="A217" s="263"/>
       <c r="B217" s="262"/>
       <c r="C217" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D217" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="88" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="45.75" customHeight="1">
       <c r="A218" s="263"/>
       <c r="B218" s="262"/>
       <c r="C218" s="70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D218" s="34"/>
       <c r="E218" s="29"/>
       <c r="F218" s="94" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="21.75" customHeight="1">
@@ -9503,7 +9503,7 @@
       <c r="E219" s="42"/>
       <c r="F219" s="54"/>
       <c r="G219" s="187" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="27" customHeight="1">
@@ -9511,163 +9511,163 @@
         <v>11</v>
       </c>
       <c r="B220" s="264" t="s">
+        <v>402</v>
+      </c>
+      <c r="C220" s="174" t="s">
         <v>403</v>
-      </c>
-      <c r="C220" s="174" t="s">
-        <v>404</v>
       </c>
       <c r="D220" s="175"/>
       <c r="E220" s="176"/>
       <c r="F220" s="177"/>
       <c r="G220" s="187" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="27" customHeight="1">
       <c r="A221" s="265"/>
       <c r="B221" s="264"/>
       <c r="C221" s="174" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D221" s="175"/>
       <c r="E221" s="176"/>
       <c r="F221" s="177"/>
       <c r="G221" s="188" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="50.25" customHeight="1">
       <c r="A222" s="265"/>
       <c r="B222" s="264"/>
       <c r="C222" s="174" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D222" s="175"/>
       <c r="E222" s="176"/>
       <c r="F222" s="204" t="s">
+        <v>408</v>
+      </c>
+      <c r="G222" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="G222" s="4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="15.6">
       <c r="A223" s="265"/>
       <c r="B223" s="264"/>
       <c r="C223" s="178" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D223" s="175" t="s">
         <v>0</v>
       </c>
       <c r="E223" s="176"/>
       <c r="F223" s="177" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="28.8">
       <c r="A224" s="265"/>
       <c r="B224" s="264"/>
       <c r="C224" s="178" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D224" s="175" t="s">
         <v>0</v>
       </c>
       <c r="E224" s="176"/>
       <c r="F224" s="179" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="57.6">
       <c r="A225" s="265"/>
       <c r="B225" s="264"/>
       <c r="C225" s="178" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D225" s="175"/>
       <c r="E225" s="176"/>
       <c r="F225" s="180" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="15.6">
       <c r="A226" s="265"/>
       <c r="B226" s="264"/>
       <c r="C226" s="174" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D226" s="175"/>
       <c r="E226" s="181"/>
       <c r="F226" s="177"/>
       <c r="G226" s="188" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="15.6">
       <c r="A227" s="265"/>
       <c r="B227" s="264"/>
       <c r="C227" s="174" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D227" s="175" t="s">
         <v>0</v>
       </c>
       <c r="E227" s="176"/>
       <c r="F227" s="179" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="28.8">
       <c r="A228" s="265"/>
       <c r="B228" s="264"/>
       <c r="C228" s="174" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D228" s="175" t="s">
         <v>0</v>
       </c>
       <c r="E228" s="176"/>
       <c r="F228" s="179" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="15.6">
       <c r="A229" s="265"/>
       <c r="B229" s="264"/>
       <c r="C229" s="174" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D229" s="175" t="s">
         <v>0</v>
       </c>
       <c r="E229" s="176"/>
       <c r="F229" s="179" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="28.8">
       <c r="A230" s="265"/>
       <c r="B230" s="264"/>
       <c r="C230" s="182" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D230" s="183" t="s">
         <v>0</v>
       </c>
       <c r="E230" s="184"/>
       <c r="F230" s="185" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="28.8">
       <c r="A231" s="265"/>
       <c r="B231" s="264"/>
       <c r="C231" s="186" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D231" s="175" t="s">
         <v>0</v>
@@ -9679,71 +9679,71 @@
       <c r="A232" s="265"/>
       <c r="B232" s="264"/>
       <c r="C232" s="186" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D232" s="175"/>
       <c r="E232" s="176"/>
       <c r="F232" s="179"/>
       <c r="G232" s="188" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="28.8">
       <c r="A233" s="265"/>
       <c r="B233" s="264"/>
       <c r="C233" s="205" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D233" s="175"/>
       <c r="E233" s="176"/>
       <c r="F233" s="180" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="15.6">
       <c r="A234" s="265"/>
       <c r="B234" s="264"/>
       <c r="C234" s="205" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D234" s="190"/>
       <c r="E234" s="181"/>
       <c r="F234" s="180" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G234" s="188" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="28.8">
       <c r="A235" s="265"/>
       <c r="B235" s="264"/>
       <c r="C235" s="205" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D235" s="190"/>
       <c r="E235" s="181"/>
       <c r="F235" s="180" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="15.6">
       <c r="A236" s="265"/>
       <c r="B236" s="264"/>
       <c r="C236" s="205" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D236" s="190"/>
       <c r="E236" s="181"/>
       <c r="F236" s="180" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="49.5" customHeight="1">
       <c r="A237" s="265"/>
       <c r="B237" s="264"/>
       <c r="C237" s="186" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D237" s="175"/>
       <c r="E237" s="176"/>
@@ -9762,202 +9762,202 @@
         <v>12</v>
       </c>
       <c r="B239" s="261" t="s">
+        <v>435</v>
+      </c>
+      <c r="C239" s="156" t="s">
         <v>436</v>
-      </c>
-      <c r="C239" s="156" t="s">
-        <v>437</v>
       </c>
       <c r="D239" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="28.8">
       <c r="A240" s="260"/>
       <c r="B240" s="261"/>
       <c r="C240" s="157" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D240" s="90"/>
       <c r="E240" s="38"/>
       <c r="F240" s="94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="43.2">
       <c r="A241" s="260"/>
       <c r="B241" s="261"/>
       <c r="C241" s="156" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D241" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E241" s="14"/>
       <c r="F241" s="88" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="28.8">
       <c r="A242" s="260"/>
       <c r="B242" s="261"/>
       <c r="C242" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D242" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E242" s="14"/>
       <c r="F242" s="88" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="15.6">
       <c r="A243" s="260"/>
       <c r="B243" s="261"/>
       <c r="C243" s="156" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D243" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E243" s="14"/>
       <c r="F243" s="88" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="28.8">
       <c r="A244" s="260"/>
       <c r="B244" s="261"/>
       <c r="C244" s="156" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D244" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E244" s="14"/>
       <c r="F244" s="88" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="245" spans="1:6" s="15" customFormat="1" ht="15.6">
       <c r="A245" s="260"/>
       <c r="B245" s="261"/>
       <c r="C245" s="192" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D245" s="193"/>
       <c r="E245" s="113"/>
       <c r="F245" s="194" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="39.75" customHeight="1">
       <c r="A246" s="260"/>
       <c r="B246" s="261"/>
       <c r="C246" s="156" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D246" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E246" s="14"/>
       <c r="F246" s="88" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="28.8">
       <c r="A247" s="260"/>
       <c r="B247" s="261"/>
       <c r="C247" s="158" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D247" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E247" s="14"/>
       <c r="F247" s="88" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="57.6">
       <c r="A248" s="260"/>
       <c r="B248" s="261"/>
       <c r="C248" s="156" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D248" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E248" s="14"/>
       <c r="F248" s="88" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="28.8">
       <c r="A249" s="260"/>
       <c r="B249" s="261"/>
       <c r="C249" s="156" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D249" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E249" s="14"/>
       <c r="F249" s="88" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="28.8">
       <c r="A250" s="260"/>
       <c r="B250" s="261"/>
       <c r="C250" s="156" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D250" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E250" s="14"/>
       <c r="F250" s="88" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="15.6">
       <c r="A251" s="260"/>
       <c r="B251" s="261"/>
       <c r="C251" s="156" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D251" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E251" s="14"/>
       <c r="F251" s="88" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="28.8">
       <c r="A252" s="260"/>
       <c r="B252" s="261"/>
       <c r="C252" s="156" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D252" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E252" s="14"/>
       <c r="F252" s="88" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="260"/>
       <c r="B253" s="261"/>
       <c r="C253" s="159" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D253" s="14"/>
       <c r="E253" s="14"/>
@@ -9967,105 +9967,105 @@
       <c r="A254" s="260"/>
       <c r="B254" s="261"/>
       <c r="C254" s="156" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D254" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E254" s="14"/>
       <c r="F254" s="88" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="15.6">
       <c r="A255" s="260"/>
       <c r="B255" s="261"/>
       <c r="C255" s="156" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D255" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E255" s="14"/>
       <c r="F255" s="88" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15.6">
       <c r="A256" s="260"/>
       <c r="B256" s="261"/>
       <c r="C256" s="156" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D256" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E256" s="14"/>
       <c r="F256" s="88" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="28.8">
       <c r="A257" s="260"/>
       <c r="B257" s="261"/>
       <c r="C257" s="156" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D257" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E257" s="14"/>
       <c r="F257" s="88" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="28.8">
       <c r="A258" s="260"/>
       <c r="B258" s="261"/>
       <c r="C258" s="156" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D258" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E258" s="14"/>
       <c r="F258" s="88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="28.5" customHeight="1">
       <c r="A259" s="260"/>
       <c r="B259" s="261"/>
       <c r="C259" s="156" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D259" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E259" s="14"/>
       <c r="F259" s="88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="28.8">
       <c r="A260" s="260"/>
       <c r="B260" s="261"/>
       <c r="C260" s="156" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D260" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E260" s="14"/>
       <c r="F260" s="88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="15.6">
       <c r="A261" s="260"/>
       <c r="B261" s="261"/>
       <c r="C261" s="159" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D261" s="34"/>
       <c r="E261" s="14"/>
@@ -10075,42 +10075,42 @@
       <c r="A262" s="260"/>
       <c r="B262" s="261"/>
       <c r="C262" s="156" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D262" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E262" s="14"/>
       <c r="F262" s="88" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15.6">
       <c r="A263" s="260"/>
       <c r="B263" s="261"/>
       <c r="C263" s="156" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D263" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E263" s="14"/>
       <c r="F263" s="88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="28.8">
       <c r="A264" s="260"/>
       <c r="B264" s="261"/>
       <c r="C264" s="156" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D264" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E264" s="14"/>
       <c r="F264" s="88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="5.25" customHeight="1">
@@ -10123,170 +10123,170 @@
     </row>
     <row r="266" spans="1:6">
       <c r="B266" t="s">
+        <v>480</v>
+      </c>
+      <c r="C266" t="s">
         <v>481</v>
-      </c>
-      <c r="C266" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="108" customHeight="1">
       <c r="C267" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="C268" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="86.4">
       <c r="C269" s="246" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="86.4">
       <c r="C270" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="100.8">
       <c r="C271" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="43.2">
       <c r="C272" s="246" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="273" spans="3:3" ht="129.6">
       <c r="C273" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="274" spans="3:3" ht="100.8">
       <c r="C274" s="246" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="275" spans="3:3" ht="28.8">
       <c r="C275" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="277" spans="3:3" ht="72">
       <c r="C277" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="278" spans="3:3">
       <c r="C278" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="279" spans="3:3">
       <c r="C279" s="138" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="280" spans="3:3" ht="72">
       <c r="C280" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="281" spans="3:3" ht="28.8">
       <c r="C281" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="282" spans="3:3">
       <c r="C282" s="138" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="283" spans="3:3" ht="86.4">
       <c r="C283" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="284" spans="3:3" ht="28.8">
       <c r="C284" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="285" spans="3:3">
       <c r="C285" s="138" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="286" spans="3:3" ht="86.4">
       <c r="C286" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="287" spans="3:3">
       <c r="C287" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="288" spans="3:3">
       <c r="C288" s="138" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="289" spans="3:3" ht="86.4">
       <c r="C289" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="290" spans="3:3">
       <c r="C290" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="291" spans="3:3">
       <c r="C291" s="138" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="292" spans="3:3" ht="100.8">
       <c r="C292" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="293" spans="3:3" ht="43.2">
       <c r="C293" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="294" spans="3:3">
       <c r="C294" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="295" spans="3:3" ht="86.4">
       <c r="C295" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="296" spans="3:3">
       <c r="C296" s="138" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="297" spans="3:3" ht="100.8">
       <c r="C297" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="298" spans="3:3">
       <c r="C298" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -10354,19 +10354,19 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="112" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1" s="112" t="s">
         <v>515</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="D1" s="112" t="s">
         <v>516</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="E1" s="280" t="s">
         <v>517</v>
-      </c>
-      <c r="E1" s="280" t="s">
-        <v>518</v>
       </c>
       <c r="F1" s="281"/>
       <c r="G1" s="281"/>
@@ -10387,40 +10387,40 @@
       <c r="C2" s="114"/>
       <c r="D2" s="114"/>
       <c r="E2" s="115" t="s">
+        <v>518</v>
+      </c>
+      <c r="F2" s="115" t="s">
         <v>519</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="G2" s="115" t="s">
         <v>520</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="H2" s="115" t="s">
         <v>521</v>
       </c>
-      <c r="H2" s="115" t="s">
+      <c r="I2" s="115" t="s">
         <v>522</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="J2" s="115" t="s">
         <v>523</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="K2" s="115" t="s">
         <v>524</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="L2" s="115" t="s">
         <v>525</v>
       </c>
-      <c r="L2" s="115" t="s">
+      <c r="M2" s="115" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" s="115" t="s">
         <v>526</v>
       </c>
-      <c r="M2" s="115" t="s">
-        <v>307</v>
-      </c>
-      <c r="N2" s="115" t="s">
+      <c r="O2" s="115" t="s">
         <v>527</v>
       </c>
-      <c r="O2" s="115" t="s">
+      <c r="P2" s="115" t="s">
         <v>528</v>
-      </c>
-      <c r="P2" s="115" t="s">
-        <v>529</v>
       </c>
       <c r="Q2" s="116"/>
     </row>
@@ -10429,10 +10429,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="122" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" s="131" t="s">
         <v>530</v>
-      </c>
-      <c r="C3" s="131" t="s">
-        <v>531</v>
       </c>
       <c r="D3" s="117"/>
       <c r="E3" s="117"/>
@@ -10454,10 +10454,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="122" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" s="131" t="s">
         <v>532</v>
-      </c>
-      <c r="C4" s="131" t="s">
-        <v>533</v>
       </c>
       <c r="D4" s="117"/>
       <c r="E4" s="117"/>
@@ -10479,10 +10479,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="122" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="131" t="s">
         <v>534</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>535</v>
       </c>
       <c r="D5" s="117"/>
       <c r="E5" s="117"/>
@@ -10504,10 +10504,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="122" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" s="131" t="s">
         <v>536</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>537</v>
       </c>
       <c r="D6" s="117"/>
       <c r="E6" s="117"/>
@@ -10529,10 +10529,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="122" t="s">
+        <v>537</v>
+      </c>
+      <c r="C7" s="131" t="s">
         <v>538</v>
-      </c>
-      <c r="C7" s="131" t="s">
-        <v>539</v>
       </c>
       <c r="D7" s="117"/>
       <c r="E7" s="117"/>
@@ -10554,10 +10554,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="122" t="s">
+        <v>539</v>
+      </c>
+      <c r="C8" s="131" t="s">
         <v>540</v>
-      </c>
-      <c r="C8" s="131" t="s">
-        <v>541</v>
       </c>
       <c r="D8" s="117"/>
       <c r="E8" s="117"/>
@@ -10579,10 +10579,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="122" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9" s="131" t="s">
         <v>542</v>
-      </c>
-      <c r="C9" s="131" t="s">
-        <v>543</v>
       </c>
       <c r="D9" s="117"/>
       <c r="E9" s="117"/>
@@ -10604,10 +10604,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="122" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" s="131" t="s">
         <v>544</v>
-      </c>
-      <c r="C10" s="131" t="s">
-        <v>545</v>
       </c>
       <c r="D10" s="117"/>
       <c r="E10" s="117"/>
@@ -10629,10 +10629,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="122" t="s">
+        <v>545</v>
+      </c>
+      <c r="C11" s="131" t="s">
         <v>546</v>
-      </c>
-      <c r="C11" s="131" t="s">
-        <v>547</v>
       </c>
       <c r="D11" s="117"/>
       <c r="E11" s="117"/>
@@ -10654,10 +10654,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="126" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" s="132" t="s">
         <v>548</v>
-      </c>
-      <c r="C12" s="132" t="s">
-        <v>549</v>
       </c>
       <c r="D12" s="117"/>
       <c r="E12" s="117"/>
@@ -10679,10 +10679,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="121" t="s">
+        <v>549</v>
+      </c>
+      <c r="C13" s="131" t="s">
         <v>550</v>
-      </c>
-      <c r="C13" s="131" t="s">
-        <v>551</v>
       </c>
       <c r="D13" s="117"/>
       <c r="E13" s="117"/>
@@ -10704,10 +10704,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="121" t="s">
+        <v>551</v>
+      </c>
+      <c r="C14" s="131" t="s">
         <v>552</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>553</v>
       </c>
       <c r="D14" s="117"/>
       <c r="E14" s="117"/>
@@ -10729,10 +10729,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="121" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" s="131" t="s">
         <v>554</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>555</v>
       </c>
       <c r="D15" s="117"/>
       <c r="E15" s="117"/>
@@ -10754,10 +10754,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="121" t="s">
+        <v>555</v>
+      </c>
+      <c r="C16" s="131" t="s">
         <v>556</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>557</v>
       </c>
       <c r="D16" s="117"/>
       <c r="E16" s="117"/>
@@ -10779,10 +10779,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="121" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" s="131" t="s">
         <v>558</v>
-      </c>
-      <c r="C17" s="131" t="s">
-        <v>559</v>
       </c>
       <c r="D17" s="117"/>
       <c r="E17" s="117"/>
@@ -10804,10 +10804,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="121" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="131" t="s">
         <v>560</v>
-      </c>
-      <c r="C18" s="131" t="s">
-        <v>561</v>
       </c>
       <c r="D18" s="117"/>
       <c r="E18" s="117"/>
@@ -10829,10 +10829,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="121" t="s">
+        <v>561</v>
+      </c>
+      <c r="C19" s="131" t="s">
         <v>562</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>563</v>
       </c>
       <c r="D19" s="117"/>
       <c r="E19" s="117"/>
@@ -10854,46 +10854,46 @@
         <v>18</v>
       </c>
       <c r="B20" s="121" t="s">
+        <v>563</v>
+      </c>
+      <c r="C20" s="131" t="s">
         <v>564</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>565</v>
       </c>
       <c r="D20" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F20" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F20" s="117" t="s">
+      <c r="G20" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G20" s="244" t="s">
+      <c r="H20" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H20" s="117" t="s">
+      <c r="I20" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I20" s="117" t="s">
+      <c r="J20" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J20" s="117" t="s">
+      <c r="K20" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K20" s="117" t="s">
+      <c r="L20" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L20" s="117" t="s">
+      <c r="M20" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M20" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N20" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O20" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P20" s="117"/>
       <c r="Q20" s="116"/>
@@ -10903,46 +10903,46 @@
         <v>19</v>
       </c>
       <c r="B21" s="121" t="s">
+        <v>574</v>
+      </c>
+      <c r="C21" s="131" t="s">
         <v>575</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>576</v>
       </c>
       <c r="D21" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F21" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F21" s="117" t="s">
+      <c r="G21" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G21" s="244" t="s">
+      <c r="H21" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H21" s="117" t="s">
+      <c r="I21" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I21" s="117" t="s">
+      <c r="J21" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J21" s="117" t="s">
+      <c r="K21" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K21" s="117" t="s">
+      <c r="L21" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L21" s="117" t="s">
+      <c r="M21" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M21" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N21" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O21" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P21" s="117"/>
       <c r="Q21" s="116"/>
@@ -10952,46 +10952,46 @@
         <v>20</v>
       </c>
       <c r="B22" s="121" t="s">
+        <v>576</v>
+      </c>
+      <c r="C22" s="131" t="s">
         <v>577</v>
-      </c>
-      <c r="C22" s="131" t="s">
-        <v>578</v>
       </c>
       <c r="D22" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F22" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F22" s="117" t="s">
+      <c r="G22" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G22" s="244" t="s">
+      <c r="H22" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H22" s="117" t="s">
+      <c r="I22" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I22" s="117" t="s">
+      <c r="J22" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J22" s="117" t="s">
+      <c r="K22" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K22" s="117" t="s">
+      <c r="L22" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L22" s="117" t="s">
+      <c r="M22" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M22" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N22" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O22" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P22" s="117"/>
       <c r="Q22" s="116"/>
@@ -11001,46 +11001,46 @@
         <v>21</v>
       </c>
       <c r="B23" s="121" t="s">
+        <v>578</v>
+      </c>
+      <c r="C23" s="131" t="s">
         <v>579</v>
-      </c>
-      <c r="C23" s="131" t="s">
-        <v>580</v>
       </c>
       <c r="D23" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F23" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F23" s="117" t="s">
+      <c r="G23" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G23" s="244" t="s">
+      <c r="H23" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H23" s="117" t="s">
+      <c r="I23" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I23" s="117" t="s">
+      <c r="J23" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J23" s="117" t="s">
+      <c r="K23" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K23" s="117" t="s">
+      <c r="L23" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L23" s="117" t="s">
+      <c r="M23" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M23" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N23" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O23" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P23" s="117"/>
       <c r="Q23" s="116"/>
@@ -11050,46 +11050,46 @@
         <v>22</v>
       </c>
       <c r="B24" s="121" t="s">
+        <v>580</v>
+      </c>
+      <c r="C24" s="131" t="s">
         <v>581</v>
-      </c>
-      <c r="C24" s="131" t="s">
-        <v>582</v>
       </c>
       <c r="D24" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F24" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F24" s="117" t="s">
+      <c r="G24" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G24" s="244" t="s">
+      <c r="H24" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H24" s="117" t="s">
+      <c r="I24" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I24" s="117" t="s">
+      <c r="J24" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J24" s="117" t="s">
+      <c r="K24" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K24" s="117" t="s">
+      <c r="L24" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L24" s="117" t="s">
+      <c r="M24" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M24" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N24" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O24" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P24" s="117"/>
       <c r="Q24" s="116"/>
@@ -11099,46 +11099,46 @@
         <v>23</v>
       </c>
       <c r="B25" s="121" t="s">
+        <v>582</v>
+      </c>
+      <c r="C25" s="131" t="s">
         <v>583</v>
-      </c>
-      <c r="C25" s="131" t="s">
-        <v>584</v>
       </c>
       <c r="D25" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F25" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F25" s="117" t="s">
+      <c r="G25" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G25" s="244" t="s">
+      <c r="H25" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H25" s="117" t="s">
+      <c r="I25" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I25" s="117" t="s">
+      <c r="J25" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J25" s="117" t="s">
+      <c r="K25" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K25" s="117" t="s">
+      <c r="L25" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L25" s="117" t="s">
+      <c r="M25" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M25" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N25" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O25" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P25" s="117"/>
       <c r="Q25" s="116"/>
@@ -11148,46 +11148,46 @@
         <v>24</v>
       </c>
       <c r="B26" s="120" t="s">
+        <v>584</v>
+      </c>
+      <c r="C26" s="131" t="s">
         <v>585</v>
-      </c>
-      <c r="C26" s="131" t="s">
-        <v>586</v>
       </c>
       <c r="D26" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F26" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F26" s="117" t="s">
+      <c r="G26" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G26" s="244" t="s">
+      <c r="H26" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H26" s="117" t="s">
+      <c r="I26" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I26" s="117" t="s">
+      <c r="J26" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J26" s="117" t="s">
+      <c r="K26" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K26" s="117" t="s">
+      <c r="L26" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L26" s="117" t="s">
+      <c r="M26" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M26" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N26" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O26" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P26" s="117"/>
       <c r="Q26" s="116"/>
@@ -11197,46 +11197,46 @@
         <v>25</v>
       </c>
       <c r="B27" s="121" t="s">
+        <v>586</v>
+      </c>
+      <c r="C27" s="134" t="s">
         <v>587</v>
-      </c>
-      <c r="C27" s="134" t="s">
-        <v>588</v>
       </c>
       <c r="D27" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F27" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F27" s="117" t="s">
+      <c r="G27" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G27" s="244" t="s">
+      <c r="H27" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H27" s="117" t="s">
+      <c r="I27" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I27" s="117" t="s">
+      <c r="J27" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J27" s="117" t="s">
+      <c r="K27" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K27" s="117" t="s">
+      <c r="L27" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L27" s="117" t="s">
+      <c r="M27" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M27" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N27" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O27" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P27" s="117"/>
       <c r="Q27" s="116"/>
@@ -11246,46 +11246,46 @@
         <v>26</v>
       </c>
       <c r="B28" s="121" t="s">
+        <v>588</v>
+      </c>
+      <c r="C28" s="134" t="s">
         <v>589</v>
-      </c>
-      <c r="C28" s="134" t="s">
-        <v>590</v>
       </c>
       <c r="D28" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F28" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F28" s="117" t="s">
+      <c r="G28" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G28" s="244" t="s">
+      <c r="H28" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H28" s="117" t="s">
+      <c r="I28" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I28" s="117" t="s">
+      <c r="J28" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J28" s="117" t="s">
+      <c r="K28" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K28" s="117" t="s">
+      <c r="L28" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L28" s="117" t="s">
+      <c r="M28" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M28" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N28" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O28" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P28" s="117"/>
       <c r="Q28" s="116"/>
@@ -11295,46 +11295,46 @@
         <v>27</v>
       </c>
       <c r="B29" s="121" t="s">
+        <v>590</v>
+      </c>
+      <c r="C29" s="134" t="s">
         <v>591</v>
-      </c>
-      <c r="C29" s="134" t="s">
-        <v>592</v>
       </c>
       <c r="D29" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F29" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F29" s="117" t="s">
+      <c r="G29" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G29" s="244" t="s">
+      <c r="H29" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H29" s="117" t="s">
+      <c r="I29" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I29" s="117" t="s">
+      <c r="J29" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J29" s="117" t="s">
+      <c r="K29" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K29" s="117" t="s">
+      <c r="L29" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L29" s="117" t="s">
+      <c r="M29" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M29" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N29" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O29" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P29" s="117"/>
       <c r="Q29" s="116"/>
@@ -11344,46 +11344,46 @@
         <v>28</v>
       </c>
       <c r="B30" s="121" t="s">
+        <v>592</v>
+      </c>
+      <c r="C30" s="134" t="s">
         <v>593</v>
-      </c>
-      <c r="C30" s="134" t="s">
-        <v>594</v>
       </c>
       <c r="D30" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F30" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F30" s="117" t="s">
+      <c r="G30" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G30" s="244" t="s">
+      <c r="H30" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H30" s="117" t="s">
+      <c r="I30" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I30" s="117" t="s">
+      <c r="J30" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J30" s="117" t="s">
+      <c r="K30" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K30" s="117" t="s">
+      <c r="L30" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L30" s="117" t="s">
+      <c r="M30" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M30" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N30" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O30" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P30" s="117"/>
       <c r="Q30" s="116"/>
@@ -11393,46 +11393,46 @@
         <v>29</v>
       </c>
       <c r="B31" s="121" t="s">
+        <v>594</v>
+      </c>
+      <c r="C31" s="134" t="s">
         <v>595</v>
-      </c>
-      <c r="C31" s="134" t="s">
-        <v>596</v>
       </c>
       <c r="D31" s="117" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F31" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F31" s="117" t="s">
+      <c r="G31" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G31" s="244" t="s">
+      <c r="H31" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H31" s="117" t="s">
+      <c r="I31" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I31" s="117" t="s">
+      <c r="J31" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J31" s="117" t="s">
+      <c r="K31" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K31" s="117" t="s">
+      <c r="L31" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L31" s="117" t="s">
+      <c r="M31" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M31" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N31" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O31" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P31" s="117"/>
       <c r="Q31" s="116"/>
@@ -11442,46 +11442,46 @@
         <v>30</v>
       </c>
       <c r="B32" s="227" t="s">
+        <v>596</v>
+      </c>
+      <c r="C32" s="226" t="s">
         <v>597</v>
-      </c>
-      <c r="C32" s="226" t="s">
-        <v>598</v>
       </c>
       <c r="D32" s="225" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F32" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F32" s="117" t="s">
+      <c r="G32" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G32" s="244" t="s">
+      <c r="H32" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H32" s="117" t="s">
+      <c r="I32" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I32" s="117" t="s">
+      <c r="J32" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J32" s="117" t="s">
+      <c r="K32" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K32" s="117" t="s">
+      <c r="L32" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L32" s="117" t="s">
+      <c r="M32" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M32" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N32" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O32" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P32" s="225"/>
     </row>
@@ -11490,46 +11490,46 @@
         <v>31</v>
       </c>
       <c r="B33" s="125" t="s">
+        <v>598</v>
+      </c>
+      <c r="C33" s="233" t="s">
         <v>599</v>
-      </c>
-      <c r="C33" s="233" t="s">
-        <v>600</v>
       </c>
       <c r="D33" s="234" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F33" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F33" s="117" t="s">
+      <c r="G33" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G33" s="244" t="s">
+      <c r="H33" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H33" s="117" t="s">
+      <c r="I33" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I33" s="117" t="s">
+      <c r="J33" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J33" s="117" t="s">
+      <c r="K33" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K33" s="117" t="s">
+      <c r="L33" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L33" s="117" t="s">
+      <c r="M33" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M33" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N33" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O33" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P33" s="234"/>
       <c r="Q33" s="116"/>
@@ -11539,46 +11539,46 @@
         <v>32</v>
       </c>
       <c r="B34" s="121" t="s">
+        <v>600</v>
+      </c>
+      <c r="C34" s="120" t="s">
         <v>601</v>
-      </c>
-      <c r="C34" s="120" t="s">
-        <v>602</v>
       </c>
       <c r="D34" s="141" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F34" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F34" s="117" t="s">
+      <c r="G34" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G34" s="244" t="s">
+      <c r="H34" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H34" s="117" t="s">
+      <c r="I34" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I34" s="117" t="s">
+      <c r="J34" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J34" s="117" t="s">
+      <c r="K34" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K34" s="117" t="s">
+      <c r="L34" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L34" s="117" t="s">
+      <c r="M34" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M34" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N34" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O34" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P34" s="141"/>
       <c r="Q34" s="140"/>
@@ -11588,46 +11588,46 @@
         <v>33</v>
       </c>
       <c r="B35" s="121" t="s">
+        <v>602</v>
+      </c>
+      <c r="C35" s="120" t="s">
         <v>603</v>
-      </c>
-      <c r="C35" s="120" t="s">
-        <v>604</v>
       </c>
       <c r="D35" s="141" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F35" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F35" s="117" t="s">
+      <c r="G35" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G35" s="244" t="s">
+      <c r="H35" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H35" s="117" t="s">
+      <c r="I35" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I35" s="117" t="s">
+      <c r="J35" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J35" s="117" t="s">
+      <c r="K35" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K35" s="117" t="s">
+      <c r="L35" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L35" s="117" t="s">
+      <c r="M35" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M35" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N35" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O35" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P35" s="141"/>
       <c r="Q35" s="140"/>
@@ -11637,46 +11637,46 @@
         <v>34</v>
       </c>
       <c r="B36" s="121" t="s">
+        <v>604</v>
+      </c>
+      <c r="C36" s="120" t="s">
         <v>605</v>
-      </c>
-      <c r="C36" s="120" t="s">
-        <v>606</v>
       </c>
       <c r="D36" s="141" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F36" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F36" s="117" t="s">
+      <c r="G36" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G36" s="244" t="s">
+      <c r="H36" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H36" s="117" t="s">
+      <c r="I36" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I36" s="117" t="s">
+      <c r="J36" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J36" s="117" t="s">
+      <c r="K36" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K36" s="117" t="s">
+      <c r="L36" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L36" s="117" t="s">
+      <c r="M36" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M36" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N36" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O36" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P36" s="141"/>
       <c r="Q36" s="140"/>
@@ -11686,46 +11686,46 @@
         <v>35</v>
       </c>
       <c r="B37" s="121" t="s">
+        <v>606</v>
+      </c>
+      <c r="C37" s="120" t="s">
         <v>607</v>
-      </c>
-      <c r="C37" s="120" t="s">
-        <v>608</v>
       </c>
       <c r="D37" s="141" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F37" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F37" s="117" t="s">
+      <c r="G37" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G37" s="244" t="s">
+      <c r="H37" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H37" s="117" t="s">
+      <c r="I37" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I37" s="117" t="s">
+      <c r="J37" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J37" s="117" t="s">
+      <c r="K37" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K37" s="117" t="s">
+      <c r="L37" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L37" s="117" t="s">
+      <c r="M37" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M37" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N37" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O37" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P37" s="141"/>
       <c r="Q37" s="140"/>
@@ -11735,46 +11735,46 @@
         <v>36</v>
       </c>
       <c r="B38" s="121" t="s">
+        <v>608</v>
+      </c>
+      <c r="C38" s="120" t="s">
         <v>609</v>
-      </c>
-      <c r="C38" s="120" t="s">
-        <v>610</v>
       </c>
       <c r="D38" s="141" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F38" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F38" s="117" t="s">
+      <c r="G38" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G38" s="244" t="s">
+      <c r="H38" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H38" s="117" t="s">
+      <c r="I38" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I38" s="117" t="s">
+      <c r="J38" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J38" s="117" t="s">
+      <c r="K38" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K38" s="117" t="s">
+      <c r="L38" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L38" s="117" t="s">
+      <c r="M38" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M38" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N38" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O38" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P38" s="141"/>
       <c r="Q38" s="140"/>
@@ -11784,46 +11784,46 @@
         <v>37</v>
       </c>
       <c r="B39" s="121" t="s">
+        <v>610</v>
+      </c>
+      <c r="C39" s="120" t="s">
         <v>611</v>
-      </c>
-      <c r="C39" s="120" t="s">
-        <v>612</v>
       </c>
       <c r="D39" s="141" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F39" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F39" s="117" t="s">
+      <c r="G39" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G39" s="244" t="s">
+      <c r="H39" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H39" s="117" t="s">
+      <c r="I39" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I39" s="117" t="s">
+      <c r="J39" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J39" s="117" t="s">
+      <c r="K39" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K39" s="117" t="s">
+      <c r="L39" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L39" s="117" t="s">
+      <c r="M39" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M39" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N39" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O39" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P39" s="141"/>
       <c r="Q39" s="140"/>
@@ -11833,46 +11833,46 @@
         <v>38</v>
       </c>
       <c r="B40" s="121" t="s">
+        <v>612</v>
+      </c>
+      <c r="C40" s="120" t="s">
         <v>613</v>
-      </c>
-      <c r="C40" s="120" t="s">
-        <v>614</v>
       </c>
       <c r="D40" s="141" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F40" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F40" s="117" t="s">
+      <c r="G40" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G40" s="244" t="s">
+      <c r="H40" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H40" s="117" t="s">
+      <c r="I40" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I40" s="117" t="s">
+      <c r="J40" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J40" s="117" t="s">
+      <c r="K40" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K40" s="117" t="s">
+      <c r="L40" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L40" s="117" t="s">
+      <c r="M40" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M40" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N40" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O40" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P40" s="141"/>
       <c r="Q40" s="231"/>
@@ -11882,46 +11882,46 @@
         <v>39</v>
       </c>
       <c r="B41" s="121" t="s">
+        <v>614</v>
+      </c>
+      <c r="C41" s="120" t="s">
         <v>615</v>
-      </c>
-      <c r="C41" s="120" t="s">
-        <v>616</v>
       </c>
       <c r="D41" s="141" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F41" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F41" s="117" t="s">
+      <c r="G41" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G41" s="244" t="s">
+      <c r="H41" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H41" s="117" t="s">
+      <c r="I41" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I41" s="117" t="s">
+      <c r="J41" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J41" s="117" t="s">
+      <c r="K41" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K41" s="117" t="s">
+      <c r="L41" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L41" s="117" t="s">
+      <c r="M41" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M41" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N41" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O41" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P41" s="141"/>
       <c r="Q41" s="140"/>
@@ -11931,46 +11931,46 @@
         <v>40</v>
       </c>
       <c r="B42" s="121" t="s">
+        <v>616</v>
+      </c>
+      <c r="C42" s="120" t="s">
         <v>617</v>
-      </c>
-      <c r="C42" s="120" t="s">
-        <v>618</v>
       </c>
       <c r="D42" s="141" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F42" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F42" s="117" t="s">
+      <c r="G42" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G42" s="244" t="s">
+      <c r="H42" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H42" s="117" t="s">
+      <c r="I42" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="I42" s="117" t="s">
+      <c r="J42" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="J42" s="117" t="s">
+      <c r="K42" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="K42" s="117" t="s">
+      <c r="L42" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L42" s="117" t="s">
+      <c r="M42" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M42" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N42" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O42" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P42" s="141"/>
       <c r="Q42" s="140"/>
@@ -11980,10 +11980,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="121" t="s">
+        <v>618</v>
+      </c>
+      <c r="C43" s="120" t="s">
         <v>619</v>
-      </c>
-      <c r="C43" s="120" t="s">
-        <v>620</v>
       </c>
       <c r="D43" s="141"/>
       <c r="E43" s="141"/>
@@ -12005,46 +12005,46 @@
         <v>42</v>
       </c>
       <c r="B44" s="121" t="s">
+        <v>620</v>
+      </c>
+      <c r="C44" s="120" t="s">
         <v>621</v>
-      </c>
-      <c r="C44" s="120" t="s">
-        <v>622</v>
       </c>
       <c r="D44" s="141" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F44" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F44" s="117" t="s">
+      <c r="G44" s="244" t="s">
+        <v>622</v>
+      </c>
+      <c r="H44" s="117" t="s">
+        <v>568</v>
+      </c>
+      <c r="I44" s="117" t="s">
+        <v>569</v>
+      </c>
+      <c r="J44" s="117" t="s">
+        <v>570</v>
+      </c>
+      <c r="K44" s="117" t="s">
+        <v>571</v>
+      </c>
+      <c r="L44" s="117" t="s">
+        <v>572</v>
+      </c>
+      <c r="M44" s="117" t="s">
+        <v>573</v>
+      </c>
+      <c r="N44" s="244" t="s">
+        <v>623</v>
+      </c>
+      <c r="O44" s="117" t="s">
         <v>567</v>
-      </c>
-      <c r="G44" s="244" t="s">
-        <v>623</v>
-      </c>
-      <c r="H44" s="117" t="s">
-        <v>569</v>
-      </c>
-      <c r="I44" s="117" t="s">
-        <v>570</v>
-      </c>
-      <c r="J44" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="K44" s="117" t="s">
-        <v>572</v>
-      </c>
-      <c r="L44" s="117" t="s">
-        <v>573</v>
-      </c>
-      <c r="M44" s="117" t="s">
-        <v>574</v>
-      </c>
-      <c r="N44" s="244" t="s">
-        <v>624</v>
-      </c>
-      <c r="O44" s="117" t="s">
-        <v>568</v>
       </c>
       <c r="P44" s="141"/>
       <c r="Q44" s="140"/>
@@ -12054,10 +12054,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="121" t="s">
+        <v>624</v>
+      </c>
+      <c r="C45" s="120" t="s">
         <v>625</v>
-      </c>
-      <c r="C45" s="120" t="s">
-        <v>626</v>
       </c>
       <c r="D45" s="141"/>
       <c r="E45" s="141"/>
@@ -12079,10 +12079,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="121" t="s">
+        <v>626</v>
+      </c>
+      <c r="C46" s="120" t="s">
         <v>627</v>
-      </c>
-      <c r="C46" s="120" t="s">
-        <v>628</v>
       </c>
       <c r="D46" s="141"/>
       <c r="E46" s="141"/>
@@ -12104,10 +12104,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="121" t="s">
+        <v>628</v>
+      </c>
+      <c r="C47" s="120" t="s">
         <v>629</v>
-      </c>
-      <c r="C47" s="120" t="s">
-        <v>630</v>
       </c>
       <c r="D47" s="141"/>
       <c r="E47" s="141"/>
@@ -12129,10 +12129,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="121" t="s">
+        <v>630</v>
+      </c>
+      <c r="C48" s="120" t="s">
         <v>631</v>
-      </c>
-      <c r="C48" s="120" t="s">
-        <v>632</v>
       </c>
       <c r="D48" s="141"/>
       <c r="E48" s="141"/>
@@ -12154,10 +12154,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="121" t="s">
+        <v>632</v>
+      </c>
+      <c r="C49" s="120" t="s">
         <v>633</v>
-      </c>
-      <c r="C49" s="120" t="s">
-        <v>634</v>
       </c>
       <c r="D49" s="141"/>
       <c r="E49" s="141"/>
@@ -12179,10 +12179,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="121" t="s">
+        <v>634</v>
+      </c>
+      <c r="C50" s="120" t="s">
         <v>635</v>
-      </c>
-      <c r="C50" s="120" t="s">
-        <v>636</v>
       </c>
       <c r="D50" s="141"/>
       <c r="E50" s="141"/>
@@ -12204,10 +12204,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="121" t="s">
+        <v>636</v>
+      </c>
+      <c r="C51" s="120" t="s">
         <v>637</v>
-      </c>
-      <c r="C51" s="120" t="s">
-        <v>638</v>
       </c>
       <c r="D51" s="141"/>
       <c r="E51" s="141"/>
@@ -12229,10 +12229,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="121" t="s">
+        <v>638</v>
+      </c>
+      <c r="C52" s="120" t="s">
         <v>639</v>
-      </c>
-      <c r="C52" s="120" t="s">
-        <v>640</v>
       </c>
       <c r="D52" s="141"/>
       <c r="E52" s="141"/>
@@ -12254,46 +12254,46 @@
         <v>51</v>
       </c>
       <c r="B53" s="121" t="s">
+        <v>640</v>
+      </c>
+      <c r="C53" s="120" t="s">
         <v>641</v>
       </c>
-      <c r="C53" s="120" t="s">
+      <c r="D53" s="141" t="s">
         <v>642</v>
       </c>
-      <c r="D53" s="141" t="s">
-        <v>643</v>
-      </c>
       <c r="E53" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F53" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F53" s="117" t="s">
+      <c r="G53" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G53" s="244" t="s">
+      <c r="H53" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H53" s="117" t="s">
+      <c r="I53" s="141" t="s">
         <v>569</v>
       </c>
-      <c r="I53" s="141" t="s">
+      <c r="J53" s="141" t="s">
         <v>570</v>
       </c>
-      <c r="J53" s="141" t="s">
+      <c r="K53" s="141" t="s">
         <v>571</v>
       </c>
-      <c r="K53" s="141" t="s">
+      <c r="L53" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L53" s="117" t="s">
+      <c r="M53" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M53" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N53" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O53" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P53" s="141"/>
       <c r="Q53" s="140"/>
@@ -12303,46 +12303,46 @@
         <v>52</v>
       </c>
       <c r="B54" s="121" t="s">
+        <v>643</v>
+      </c>
+      <c r="C54" s="120" t="s">
         <v>644</v>
       </c>
-      <c r="C54" s="120" t="s">
-        <v>645</v>
-      </c>
       <c r="D54" s="141" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E54" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F54" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F54" s="117" t="s">
+      <c r="G54" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G54" s="244" t="s">
+      <c r="H54" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H54" s="117" t="s">
+      <c r="I54" s="141" t="s">
         <v>569</v>
       </c>
-      <c r="I54" s="141" t="s">
+      <c r="J54" s="141" t="s">
         <v>570</v>
       </c>
-      <c r="J54" s="141" t="s">
+      <c r="K54" s="141" t="s">
         <v>571</v>
       </c>
-      <c r="K54" s="141" t="s">
+      <c r="L54" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L54" s="117" t="s">
+      <c r="M54" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M54" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N54" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O54" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P54" s="141"/>
       <c r="Q54" s="140"/>
@@ -12352,46 +12352,46 @@
         <v>53</v>
       </c>
       <c r="B55" s="121" t="s">
+        <v>645</v>
+      </c>
+      <c r="C55" s="120" t="s">
         <v>646</v>
       </c>
-      <c r="C55" s="120" t="s">
+      <c r="D55" s="141" t="s">
         <v>647</v>
       </c>
-      <c r="D55" s="141" t="s">
-        <v>648</v>
-      </c>
       <c r="E55" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F55" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F55" s="117" t="s">
+      <c r="G55" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G55" s="244" t="s">
+      <c r="H55" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H55" s="117" t="s">
+      <c r="I55" s="141" t="s">
         <v>569</v>
       </c>
-      <c r="I55" s="141" t="s">
+      <c r="J55" s="141" t="s">
         <v>570</v>
       </c>
-      <c r="J55" s="141" t="s">
+      <c r="K55" s="141" t="s">
         <v>571</v>
       </c>
-      <c r="K55" s="141" t="s">
+      <c r="L55" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L55" s="117" t="s">
+      <c r="M55" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M55" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N55" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O55" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P55" s="141"/>
       <c r="Q55" s="140"/>
@@ -12401,46 +12401,46 @@
         <v>54</v>
       </c>
       <c r="B56" s="121" t="s">
+        <v>648</v>
+      </c>
+      <c r="C56" s="120" t="s">
         <v>649</v>
       </c>
-      <c r="C56" s="120" t="s">
-        <v>650</v>
-      </c>
       <c r="D56" s="141" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E56" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F56" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F56" s="117" t="s">
+      <c r="G56" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G56" s="244" t="s">
+      <c r="H56" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H56" s="117" t="s">
+      <c r="I56" s="141" t="s">
         <v>569</v>
       </c>
-      <c r="I56" s="141" t="s">
+      <c r="J56" s="141" t="s">
         <v>570</v>
       </c>
-      <c r="J56" s="141" t="s">
+      <c r="K56" s="141" t="s">
         <v>571</v>
       </c>
-      <c r="K56" s="141" t="s">
+      <c r="L56" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L56" s="117" t="s">
+      <c r="M56" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M56" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N56" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O56" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P56" s="141"/>
       <c r="Q56" s="140"/>
@@ -12450,46 +12450,46 @@
         <v>55</v>
       </c>
       <c r="B57" s="121" t="s">
+        <v>650</v>
+      </c>
+      <c r="C57" s="120" t="s">
         <v>651</v>
       </c>
-      <c r="C57" s="120" t="s">
-        <v>652</v>
-      </c>
       <c r="D57" s="141" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E57" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F57" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="F57" s="117" t="s">
+      <c r="G57" s="244" t="s">
         <v>567</v>
       </c>
-      <c r="G57" s="244" t="s">
+      <c r="H57" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="H57" s="117" t="s">
+      <c r="I57" s="141" t="s">
         <v>569</v>
       </c>
-      <c r="I57" s="141" t="s">
+      <c r="J57" s="141" t="s">
         <v>570</v>
       </c>
-      <c r="J57" s="141" t="s">
+      <c r="K57" s="141" t="s">
         <v>571</v>
       </c>
-      <c r="K57" s="141" t="s">
+      <c r="L57" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="L57" s="117" t="s">
+      <c r="M57" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="M57" s="117" t="s">
-        <v>574</v>
-      </c>
       <c r="N57" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O57" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P57" s="141"/>
       <c r="Q57" s="140"/>
@@ -12499,10 +12499,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="121" t="s">
+        <v>652</v>
+      </c>
+      <c r="C58" s="120" t="s">
         <v>653</v>
-      </c>
-      <c r="C58" s="120" t="s">
-        <v>654</v>
       </c>
       <c r="D58" s="141"/>
       <c r="E58" s="141"/>
@@ -12524,10 +12524,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="121" t="s">
+        <v>654</v>
+      </c>
+      <c r="C59" s="120" t="s">
         <v>655</v>
-      </c>
-      <c r="C59" s="120" t="s">
-        <v>656</v>
       </c>
       <c r="D59" s="141"/>
       <c r="E59" s="141"/>
@@ -12549,10 +12549,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="121" t="s">
+        <v>656</v>
+      </c>
+      <c r="C60" s="120" t="s">
         <v>657</v>
-      </c>
-      <c r="C60" s="120" t="s">
-        <v>658</v>
       </c>
       <c r="D60" s="141"/>
       <c r="E60" s="141"/>
@@ -12574,10 +12574,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="121" t="s">
+        <v>658</v>
+      </c>
+      <c r="C61" s="120" t="s">
         <v>659</v>
-      </c>
-      <c r="C61" s="120" t="s">
-        <v>660</v>
       </c>
       <c r="D61" s="141"/>
       <c r="E61" s="141"/>
@@ -12599,10 +12599,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="121" t="s">
+        <v>660</v>
+      </c>
+      <c r="C62" s="120" t="s">
         <v>661</v>
-      </c>
-      <c r="C62" s="120" t="s">
-        <v>662</v>
       </c>
       <c r="D62" s="141"/>
       <c r="E62" s="141"/>
@@ -12624,10 +12624,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="121" t="s">
+        <v>662</v>
+      </c>
+      <c r="C63" s="120" t="s">
         <v>663</v>
-      </c>
-      <c r="C63" s="120" t="s">
-        <v>664</v>
       </c>
       <c r="D63" s="141"/>
       <c r="E63" s="141"/>
@@ -12649,10 +12649,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="121" t="s">
+        <v>664</v>
+      </c>
+      <c r="C64" s="120" t="s">
         <v>665</v>
-      </c>
-      <c r="C64" s="120" t="s">
-        <v>666</v>
       </c>
       <c r="D64" s="141"/>
       <c r="E64" s="141"/>
@@ -12674,10 +12674,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="121" t="s">
+        <v>666</v>
+      </c>
+      <c r="C65" s="120" t="s">
         <v>667</v>
-      </c>
-      <c r="C65" s="120" t="s">
-        <v>668</v>
       </c>
       <c r="D65" s="141"/>
       <c r="E65" s="141"/>
@@ -12699,10 +12699,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="121" t="s">
+        <v>668</v>
+      </c>
+      <c r="C66" s="120" t="s">
         <v>669</v>
-      </c>
-      <c r="C66" s="120" t="s">
-        <v>670</v>
       </c>
       <c r="D66" s="141"/>
       <c r="E66" s="141"/>
@@ -12724,10 +12724,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="121" t="s">
+        <v>670</v>
+      </c>
+      <c r="C67" s="120" t="s">
         <v>671</v>
-      </c>
-      <c r="C67" s="120" t="s">
-        <v>672</v>
       </c>
       <c r="D67" s="141"/>
       <c r="E67" s="141"/>
@@ -12749,10 +12749,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="121" t="s">
+        <v>672</v>
+      </c>
+      <c r="C68" s="120" t="s">
         <v>673</v>
-      </c>
-      <c r="C68" s="120" t="s">
-        <v>674</v>
       </c>
       <c r="D68" s="141"/>
       <c r="E68" s="141"/>
@@ -12774,10 +12774,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="121" t="s">
+        <v>674</v>
+      </c>
+      <c r="C69" s="120" t="s">
         <v>675</v>
-      </c>
-      <c r="C69" s="120" t="s">
-        <v>676</v>
       </c>
       <c r="D69" s="141"/>
       <c r="E69" s="141"/>
@@ -12799,10 +12799,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="121" t="s">
+        <v>676</v>
+      </c>
+      <c r="C70" s="120" t="s">
         <v>677</v>
-      </c>
-      <c r="C70" s="120" t="s">
-        <v>678</v>
       </c>
       <c r="D70" s="141"/>
       <c r="E70" s="141"/>
@@ -12824,10 +12824,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="121" t="s">
+        <v>678</v>
+      </c>
+      <c r="C71" s="120" t="s">
         <v>679</v>
-      </c>
-      <c r="C71" s="120" t="s">
-        <v>680</v>
       </c>
       <c r="D71" s="141"/>
       <c r="E71" s="141"/>
@@ -12849,10 +12849,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="121" t="s">
+        <v>680</v>
+      </c>
+      <c r="C72" s="120" t="s">
         <v>681</v>
-      </c>
-      <c r="C72" s="120" t="s">
-        <v>682</v>
       </c>
       <c r="D72" s="141"/>
       <c r="E72" s="141"/>
@@ -12874,10 +12874,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="121" t="s">
+        <v>682</v>
+      </c>
+      <c r="C73" s="120" t="s">
         <v>683</v>
-      </c>
-      <c r="C73" s="120" t="s">
-        <v>684</v>
       </c>
       <c r="D73" s="141"/>
       <c r="E73" s="141"/>
@@ -12899,10 +12899,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="121" t="s">
+        <v>684</v>
+      </c>
+      <c r="C74" s="120" t="s">
         <v>685</v>
-      </c>
-      <c r="C74" s="120" t="s">
-        <v>686</v>
       </c>
       <c r="D74" s="141"/>
       <c r="E74" s="141"/>
@@ -12924,10 +12924,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="121" t="s">
+        <v>686</v>
+      </c>
+      <c r="C75" s="120" t="s">
         <v>687</v>
-      </c>
-      <c r="C75" s="120" t="s">
-        <v>688</v>
       </c>
       <c r="D75" s="141"/>
       <c r="E75" s="141"/>
@@ -12949,10 +12949,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="121" t="s">
+        <v>688</v>
+      </c>
+      <c r="C76" s="120" t="s">
         <v>689</v>
-      </c>
-      <c r="C76" s="120" t="s">
-        <v>690</v>
       </c>
       <c r="D76" s="141"/>
       <c r="E76" s="141"/>
@@ -12974,10 +12974,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="121" t="s">
+        <v>690</v>
+      </c>
+      <c r="C77" s="120" t="s">
         <v>691</v>
-      </c>
-      <c r="C77" s="120" t="s">
-        <v>692</v>
       </c>
       <c r="D77" s="141"/>
       <c r="E77" s="141"/>
@@ -12999,10 +12999,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="121" t="s">
+        <v>692</v>
+      </c>
+      <c r="C78" s="120" t="s">
         <v>693</v>
-      </c>
-      <c r="C78" s="120" t="s">
-        <v>694</v>
       </c>
       <c r="D78" s="141"/>
       <c r="E78" s="141"/>
@@ -13024,10 +13024,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="121" t="s">
+        <v>694</v>
+      </c>
+      <c r="C79" s="120" t="s">
         <v>695</v>
-      </c>
-      <c r="C79" s="120" t="s">
-        <v>696</v>
       </c>
       <c r="D79" s="141"/>
       <c r="E79" s="141"/>
@@ -13049,10 +13049,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="121" t="s">
+        <v>696</v>
+      </c>
+      <c r="C80" s="120" t="s">
         <v>697</v>
-      </c>
-      <c r="C80" s="120" t="s">
-        <v>698</v>
       </c>
       <c r="D80" s="141"/>
       <c r="E80" s="141"/>
@@ -13074,10 +13074,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="121" t="s">
+        <v>698</v>
+      </c>
+      <c r="C81" s="120" t="s">
         <v>699</v>
-      </c>
-      <c r="C81" s="120" t="s">
-        <v>700</v>
       </c>
       <c r="D81" s="141"/>
       <c r="E81" s="141"/>
@@ -13099,10 +13099,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="121" t="s">
+        <v>700</v>
+      </c>
+      <c r="C82" s="120" t="s">
         <v>701</v>
-      </c>
-      <c r="C82" s="120" t="s">
-        <v>702</v>
       </c>
       <c r="D82" s="141"/>
       <c r="E82" s="141"/>
@@ -13124,10 +13124,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="121" t="s">
+        <v>702</v>
+      </c>
+      <c r="C83" s="120" t="s">
         <v>703</v>
-      </c>
-      <c r="C83" s="120" t="s">
-        <v>704</v>
       </c>
       <c r="D83" s="141"/>
       <c r="E83" s="141"/>
@@ -13149,10 +13149,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="121" t="s">
+        <v>704</v>
+      </c>
+      <c r="C84" s="120" t="s">
         <v>705</v>
-      </c>
-      <c r="C84" s="120" t="s">
-        <v>706</v>
       </c>
       <c r="D84" s="141"/>
       <c r="E84" s="141"/>
@@ -13174,10 +13174,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="121" t="s">
+        <v>706</v>
+      </c>
+      <c r="C85" s="120" t="s">
         <v>707</v>
-      </c>
-      <c r="C85" s="120" t="s">
-        <v>708</v>
       </c>
       <c r="D85" s="141"/>
       <c r="E85" s="141"/>
@@ -13199,10 +13199,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="121" t="s">
+        <v>708</v>
+      </c>
+      <c r="C86" s="120" t="s">
         <v>709</v>
-      </c>
-      <c r="C86" s="120" t="s">
-        <v>710</v>
       </c>
       <c r="D86" s="141"/>
       <c r="E86" s="141"/>
@@ -13224,10 +13224,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="121" t="s">
+        <v>710</v>
+      </c>
+      <c r="C87" s="120" t="s">
         <v>711</v>
-      </c>
-      <c r="C87" s="120" t="s">
-        <v>712</v>
       </c>
       <c r="D87" s="141"/>
       <c r="E87" s="141"/>
@@ -13249,10 +13249,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="121" t="s">
+        <v>712</v>
+      </c>
+      <c r="C88" s="120" t="s">
         <v>713</v>
-      </c>
-      <c r="C88" s="120" t="s">
-        <v>714</v>
       </c>
       <c r="D88" s="141"/>
       <c r="E88" s="141"/>
@@ -13274,10 +13274,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="121" t="s">
+        <v>714</v>
+      </c>
+      <c r="C89" s="120" t="s">
         <v>715</v>
-      </c>
-      <c r="C89" s="120" t="s">
-        <v>716</v>
       </c>
       <c r="D89" s="141"/>
       <c r="E89" s="141"/>
@@ -13299,10 +13299,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="121" t="s">
+        <v>716</v>
+      </c>
+      <c r="C90" s="120" t="s">
         <v>717</v>
-      </c>
-      <c r="C90" s="120" t="s">
-        <v>718</v>
       </c>
       <c r="D90" s="141"/>
       <c r="E90" s="141"/>
@@ -13324,10 +13324,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="121" t="s">
+        <v>718</v>
+      </c>
+      <c r="C91" s="120" t="s">
         <v>719</v>
-      </c>
-      <c r="C91" s="120" t="s">
-        <v>720</v>
       </c>
       <c r="D91" s="141"/>
       <c r="E91" s="141"/>
@@ -13349,10 +13349,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="121" t="s">
+        <v>720</v>
+      </c>
+      <c r="C92" s="120" t="s">
         <v>721</v>
-      </c>
-      <c r="C92" s="120" t="s">
-        <v>722</v>
       </c>
       <c r="D92" s="141"/>
       <c r="E92" s="141"/>
@@ -13374,10 +13374,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="121" t="s">
+        <v>722</v>
+      </c>
+      <c r="C93" s="120" t="s">
         <v>723</v>
-      </c>
-      <c r="C93" s="120" t="s">
-        <v>724</v>
       </c>
       <c r="D93" s="141"/>
       <c r="E93" s="141"/>
@@ -13399,10 +13399,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="121" t="s">
+        <v>724</v>
+      </c>
+      <c r="C94" s="120" t="s">
         <v>725</v>
-      </c>
-      <c r="C94" s="120" t="s">
-        <v>726</v>
       </c>
       <c r="D94" s="141"/>
       <c r="E94" s="141"/>
@@ -13424,10 +13424,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="121" t="s">
+        <v>726</v>
+      </c>
+      <c r="C95" s="120" t="s">
         <v>727</v>
-      </c>
-      <c r="C95" s="120" t="s">
-        <v>728</v>
       </c>
       <c r="D95" s="141"/>
       <c r="E95" s="141"/>
@@ -13449,10 +13449,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="121" t="s">
+        <v>728</v>
+      </c>
+      <c r="C96" s="120" t="s">
         <v>729</v>
-      </c>
-      <c r="C96" s="120" t="s">
-        <v>730</v>
       </c>
       <c r="D96" s="141"/>
       <c r="E96" s="141"/>
@@ -13474,10 +13474,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="121" t="s">
+        <v>730</v>
+      </c>
+      <c r="C97" s="120" t="s">
         <v>731</v>
-      </c>
-      <c r="C97" s="120" t="s">
-        <v>732</v>
       </c>
       <c r="D97" s="141"/>
       <c r="E97" s="141"/>
@@ -13532,19 +13532,19 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B101" s="133" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C101" s="133" t="s">
+        <v>732</v>
+      </c>
+      <c r="D101" s="119" t="s">
+        <v>516</v>
+      </c>
+      <c r="E101" s="282" t="s">
         <v>733</v>
-      </c>
-      <c r="D101" s="119" t="s">
-        <v>517</v>
-      </c>
-      <c r="E101" s="282" t="s">
-        <v>734</v>
       </c>
       <c r="F101" s="282"/>
       <c r="G101" s="282"/>
@@ -13565,43 +13565,43 @@
       <c r="C102" s="238"/>
       <c r="D102" s="239"/>
       <c r="E102" s="240" t="s">
+        <v>734</v>
+      </c>
+      <c r="F102" s="241" t="s">
         <v>735</v>
       </c>
-      <c r="F102" s="241" t="s">
+      <c r="G102" s="240" t="s">
         <v>736</v>
       </c>
-      <c r="G102" s="240" t="s">
+      <c r="H102" s="240" t="s">
         <v>737</v>
       </c>
-      <c r="H102" s="240" t="s">
+      <c r="I102" s="241" t="s">
         <v>738</v>
       </c>
-      <c r="I102" s="241" t="s">
+      <c r="J102" s="240" t="s">
         <v>739</v>
       </c>
-      <c r="J102" s="240" t="s">
+      <c r="K102" s="241" t="s">
         <v>740</v>
       </c>
-      <c r="K102" s="241" t="s">
+      <c r="L102" s="240" t="s">
         <v>741</v>
       </c>
-      <c r="L102" s="240" t="s">
+      <c r="M102" s="240" t="s">
         <v>742</v>
       </c>
-      <c r="M102" s="240" t="s">
+      <c r="N102" s="241" t="s">
         <v>743</v>
       </c>
-      <c r="N102" s="241" t="s">
+      <c r="O102" s="240" t="s">
         <v>744</v>
       </c>
-      <c r="O102" s="240" t="s">
+      <c r="P102" s="242" t="s">
         <v>745</v>
       </c>
-      <c r="P102" s="242" t="s">
-        <v>746</v>
-      </c>
       <c r="Q102" s="243" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="235" customFormat="1">
@@ -13609,10 +13609,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="121" t="s">
+        <v>746</v>
+      </c>
+      <c r="C103" s="123" t="s">
         <v>747</v>
-      </c>
-      <c r="C103" s="123" t="s">
-        <v>748</v>
       </c>
       <c r="D103" s="141" t="s">
         <v>18</v>
@@ -13636,10 +13636,10 @@
         <v>2</v>
       </c>
       <c r="B104" s="121" t="s">
+        <v>748</v>
+      </c>
+      <c r="C104" s="123" t="s">
         <v>749</v>
-      </c>
-      <c r="C104" s="123" t="s">
-        <v>750</v>
       </c>
       <c r="D104" s="141"/>
       <c r="E104" s="141"/>
@@ -13661,10 +13661,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="121" t="s">
+        <v>750</v>
+      </c>
+      <c r="C105" s="123" t="s">
         <v>751</v>
-      </c>
-      <c r="C105" s="123" t="s">
-        <v>752</v>
       </c>
       <c r="D105" s="141"/>
       <c r="E105" s="141"/>
@@ -13686,13 +13686,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="121" t="s">
+        <v>752</v>
+      </c>
+      <c r="C106" s="123" t="s">
         <v>753</v>
       </c>
-      <c r="C106" s="123" t="s">
+      <c r="D106" s="141" t="s">
         <v>754</v>
-      </c>
-      <c r="D106" s="141" t="s">
-        <v>755</v>
       </c>
       <c r="E106" s="141"/>
       <c r="F106" s="141"/>
@@ -13713,13 +13713,13 @@
         <v>5</v>
       </c>
       <c r="B107" s="121" t="s">
+        <v>755</v>
+      </c>
+      <c r="C107" s="123" t="s">
         <v>756</v>
       </c>
-      <c r="C107" s="123" t="s">
-        <v>757</v>
-      </c>
       <c r="D107" s="141" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E107" s="141"/>
       <c r="F107" s="141"/>
@@ -13740,10 +13740,10 @@
         <v>6</v>
       </c>
       <c r="B108" s="121" t="s">
+        <v>757</v>
+      </c>
+      <c r="C108" s="123" t="s">
         <v>758</v>
-      </c>
-      <c r="C108" s="123" t="s">
-        <v>759</v>
       </c>
       <c r="D108" s="141"/>
       <c r="E108" s="141"/>
@@ -13765,13 +13765,13 @@
         <v>7</v>
       </c>
       <c r="B109" s="121" t="s">
+        <v>759</v>
+      </c>
+      <c r="C109" s="123" t="s">
         <v>760</v>
       </c>
-      <c r="C109" s="123" t="s">
-        <v>761</v>
-      </c>
       <c r="D109" s="141" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E109" s="141"/>
       <c r="F109" s="141"/>
@@ -13792,13 +13792,13 @@
         <v>8</v>
       </c>
       <c r="B110" s="120" t="s">
+        <v>761</v>
+      </c>
+      <c r="C110" s="123" t="s">
         <v>762</v>
       </c>
-      <c r="C110" s="123" t="s">
-        <v>763</v>
-      </c>
       <c r="D110" s="141" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E110" s="141"/>
       <c r="F110" s="141"/>
@@ -13819,13 +13819,13 @@
         <v>9</v>
       </c>
       <c r="B111" s="121" t="s">
+        <v>763</v>
+      </c>
+      <c r="C111" s="123" t="s">
         <v>764</v>
       </c>
-      <c r="C111" s="123" t="s">
-        <v>765</v>
-      </c>
       <c r="D111" s="141" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E111" s="141"/>
       <c r="F111" s="141"/>
@@ -13846,13 +13846,13 @@
         <v>10</v>
       </c>
       <c r="B112" s="121" t="s">
+        <v>765</v>
+      </c>
+      <c r="C112" s="123" t="s">
         <v>766</v>
       </c>
-      <c r="C112" s="123" t="s">
-        <v>767</v>
-      </c>
       <c r="D112" s="141" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E112" s="141"/>
       <c r="F112" s="141"/>
@@ -13873,13 +13873,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="121" t="s">
+        <v>767</v>
+      </c>
+      <c r="C113" s="120" t="s">
         <v>768</v>
       </c>
-      <c r="C113" s="120" t="s">
-        <v>769</v>
-      </c>
       <c r="D113" s="141" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E113" s="141"/>
       <c r="F113" s="141"/>
@@ -13900,10 +13900,10 @@
         <v>12</v>
       </c>
       <c r="B114" s="121" t="s">
+        <v>769</v>
+      </c>
+      <c r="C114" s="120" t="s">
         <v>770</v>
-      </c>
-      <c r="C114" s="120" t="s">
-        <v>771</v>
       </c>
       <c r="D114" s="141" t="s">
         <v>18</v>
@@ -13927,10 +13927,10 @@
         <v>13</v>
       </c>
       <c r="B115" s="121" t="s">
+        <v>771</v>
+      </c>
+      <c r="C115" s="120" t="s">
         <v>772</v>
-      </c>
-      <c r="C115" s="120" t="s">
-        <v>773</v>
       </c>
       <c r="D115" s="141" t="s">
         <v>18</v>
@@ -13954,13 +13954,13 @@
         <v>14</v>
       </c>
       <c r="B116" s="121" t="s">
+        <v>773</v>
+      </c>
+      <c r="C116" s="120" t="s">
         <v>774</v>
       </c>
-      <c r="C116" s="120" t="s">
+      <c r="D116" s="141" t="s">
         <v>775</v>
-      </c>
-      <c r="D116" s="141" t="s">
-        <v>776</v>
       </c>
       <c r="E116" s="141"/>
       <c r="F116" s="141"/>
@@ -13981,10 +13981,10 @@
         <v>15</v>
       </c>
       <c r="B117" s="237" t="s">
+        <v>776</v>
+      </c>
+      <c r="C117" s="127" t="s">
         <v>777</v>
-      </c>
-      <c r="C117" s="127" t="s">
-        <v>778</v>
       </c>
       <c r="D117" s="127"/>
       <c r="E117" s="128"/>
@@ -14006,10 +14006,10 @@
         <v>16</v>
       </c>
       <c r="B118" s="120" t="s">
+        <v>778</v>
+      </c>
+      <c r="C118" s="120" t="s">
         <v>779</v>
-      </c>
-      <c r="C118" s="120" t="s">
-        <v>780</v>
       </c>
       <c r="D118" s="120"/>
       <c r="E118" s="120"/>
@@ -14031,10 +14031,10 @@
         <v>17</v>
       </c>
       <c r="B119" s="120" t="s">
+        <v>780</v>
+      </c>
+      <c r="C119" s="120" t="s">
         <v>781</v>
-      </c>
-      <c r="C119" s="120" t="s">
-        <v>782</v>
       </c>
       <c r="D119" s="120"/>
       <c r="E119" s="120"/>
@@ -14056,10 +14056,10 @@
         <v>18</v>
       </c>
       <c r="B120" s="120" t="s">
+        <v>782</v>
+      </c>
+      <c r="C120" s="120" t="s">
         <v>783</v>
-      </c>
-      <c r="C120" s="120" t="s">
-        <v>784</v>
       </c>
       <c r="D120" s="120"/>
       <c r="E120" s="120"/>
@@ -14081,10 +14081,10 @@
         <v>19</v>
       </c>
       <c r="B121" s="124" t="s">
+        <v>784</v>
+      </c>
+      <c r="C121" s="124" t="s">
         <v>785</v>
-      </c>
-      <c r="C121" s="124" t="s">
-        <v>786</v>
       </c>
       <c r="D121" s="124"/>
       <c r="E121" s="124"/>
@@ -14106,10 +14106,10 @@
         <v>20</v>
       </c>
       <c r="B122" s="120" t="s">
+        <v>786</v>
+      </c>
+      <c r="C122" s="120" t="s">
         <v>787</v>
-      </c>
-      <c r="C122" s="120" t="s">
-        <v>788</v>
       </c>
       <c r="D122" s="120"/>
       <c r="E122" s="120"/>
@@ -14131,10 +14131,10 @@
         <v>21</v>
       </c>
       <c r="B123" s="120" t="s">
+        <v>788</v>
+      </c>
+      <c r="C123" s="120" t="s">
         <v>789</v>
-      </c>
-      <c r="C123" s="120" t="s">
-        <v>790</v>
       </c>
       <c r="D123" s="120"/>
       <c r="E123" s="120"/>
@@ -14156,10 +14156,10 @@
         <v>22</v>
       </c>
       <c r="B124" s="120" t="s">
+        <v>790</v>
+      </c>
+      <c r="C124" s="120" t="s">
         <v>791</v>
-      </c>
-      <c r="C124" s="120" t="s">
-        <v>792</v>
       </c>
       <c r="D124" s="120"/>
       <c r="E124" s="120"/>
